--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_23_35.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_23_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1533982.646001847</v>
+        <v>1533285.433927092</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9791381.184977556</v>
+        <v>9791381.184977559</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8705539.012652924</v>
+        <v>8705539.012652922</v>
       </c>
     </row>
     <row r="11">
@@ -1373,70 +1373,70 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>109.5614772844451</v>
       </c>
       <c r="E11" t="n">
-        <v>36.52913045842485</v>
+        <v>109.5614772844451</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>36.52913045842436</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>14.60272404925451</v>
+      </c>
+      <c r="U11" t="n">
+        <v>45.36989468446021</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>109.5614772844451</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>14.60272404925448</v>
-      </c>
-      <c r="U11" t="n">
-        <v>45.36989468446018</v>
-      </c>
-      <c r="V11" t="n">
-        <v>109.5614772844451</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>109.5614772844451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>18.5728105888861</v>
+        <v>18.57281058888613</v>
       </c>
       <c r="V12" t="n">
-        <v>25.84283118547816</v>
+        <v>25.84283118547819</v>
       </c>
       <c r="W12" t="n">
-        <v>43.92344689582308</v>
+        <v>43.9234468958231</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>12.1904634371681</v>
+        <v>12.19046343716813</v>
       </c>
       <c r="T13" t="n">
-        <v>21.26109377168834</v>
+        <v>21.26109377168837</v>
       </c>
       <c r="U13" t="n">
-        <v>79.97353471945351</v>
+        <v>79.97353471945354</v>
       </c>
       <c r="V13" t="n">
-        <v>46.87045121276219</v>
+        <v>46.87045121276222</v>
       </c>
       <c r="W13" t="n">
-        <v>80.02667703323857</v>
+        <v>80.0266770332386</v>
       </c>
       <c r="X13" t="n">
-        <v>20.07446007813229</v>
+        <v>20.07446007813232</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.68277401359126</v>
+        <v>12.68277401359128</v>
       </c>
     </row>
     <row r="14">
@@ -1607,13 +1607,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>109.5614772844451</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>36.52913045842459</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>109.5614772844451</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>14.60272404925448</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>45.36989468446018</v>
+        <v>45.36989468446021</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>51.13185450768057</v>
       </c>
       <c r="W14" t="n">
         <v>109.5614772844451</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>109.5614772844451</v>
       </c>
       <c r="Y14" t="n">
-        <v>109.5614772844451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>18.5728105888861</v>
+        <v>18.57281058888613</v>
       </c>
       <c r="V15" t="n">
-        <v>25.84283118547816</v>
+        <v>25.84283118547819</v>
       </c>
       <c r="W15" t="n">
-        <v>43.92344689582308</v>
+        <v>43.9234468958231</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>12.1904634371681</v>
+        <v>12.19046343716813</v>
       </c>
       <c r="T16" t="n">
-        <v>21.26109377168834</v>
+        <v>21.26109377168837</v>
       </c>
       <c r="U16" t="n">
-        <v>79.97353471945351</v>
+        <v>79.97353471945354</v>
       </c>
       <c r="V16" t="n">
-        <v>46.87045121276219</v>
+        <v>46.87045121276222</v>
       </c>
       <c r="W16" t="n">
-        <v>80.02667703323857</v>
+        <v>80.0266770332386</v>
       </c>
       <c r="X16" t="n">
-        <v>20.07446007813229</v>
+        <v>20.07446007813232</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.68277401359126</v>
+        <v>12.68277401359128</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>23.833521984794</v>
       </c>
       <c r="E17" t="n">
-        <v>50.34682498548318</v>
+        <v>50.34682498548307</v>
       </c>
       <c r="F17" t="n">
         <v>74.52265271073645</v>
@@ -2081,7 +2081,7 @@
         <v>50.94519922159066</v>
       </c>
       <c r="C20" t="n">
-        <v>34.21388490913824</v>
+        <v>34.21388490913839</v>
       </c>
       <c r="D20" t="n">
         <v>23.833521984794</v>
@@ -2558,7 +2558,7 @@
         <v>202.0145853257043</v>
       </c>
       <c r="D26" t="n">
-        <v>191.63422240136</v>
+        <v>191.6342224013601</v>
       </c>
       <c r="E26" t="n">
         <v>218.1475254020491</v>
@@ -2570,10 +2570,10 @@
         <v>249.3596420767516</v>
       </c>
       <c r="H26" t="n">
-        <v>167.800700416566</v>
+        <v>167.8007004165661</v>
       </c>
       <c r="I26" t="n">
-        <v>20.02865584088113</v>
+        <v>20.02865584088116</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>28.93982322889946</v>
+        <v>28.93982322889948</v>
       </c>
       <c r="T26" t="n">
-        <v>55.69811355019309</v>
+        <v>55.69811355019311</v>
       </c>
       <c r="U26" t="n">
-        <v>86.46528418539879</v>
+        <v>86.46528418539881</v>
       </c>
       <c r="V26" t="n">
         <v>163.562711169281</v>
       </c>
       <c r="W26" t="n">
-        <v>185.5596066473162</v>
+        <v>185.5596066473163</v>
       </c>
       <c r="X26" t="n">
-        <v>205.891088777931</v>
+        <v>205.8910887779311</v>
       </c>
       <c r="Y26" t="n">
         <v>221.7165613979975</v>
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.4016152571064708</v>
+        <v>0.4016152571064993</v>
       </c>
       <c r="C27" t="n">
-        <v>6.055073574162634</v>
+        <v>6.055073574162662</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>32.28063304949951</v>
+        <v>32.28063304949954</v>
       </c>
       <c r="U27" t="n">
-        <v>59.66820008982472</v>
+        <v>59.66820008982474</v>
       </c>
       <c r="V27" t="n">
-        <v>66.93822068641677</v>
+        <v>66.9382206864168</v>
       </c>
       <c r="W27" t="n">
-        <v>85.01883639676169</v>
+        <v>85.01883639676171</v>
       </c>
       <c r="X27" t="n">
-        <v>39.49111925523991</v>
+        <v>39.49111925523994</v>
       </c>
       <c r="Y27" t="n">
-        <v>38.70064106534767</v>
+        <v>38.7006410653477</v>
       </c>
     </row>
     <row r="28">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15.11318113744545</v>
+        <v>15.11318113744548</v>
       </c>
       <c r="C28" t="n">
-        <v>2.366042577963981</v>
+        <v>2.366042577964009</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.683755257251283</v>
+        <v>2.683755257251311</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>53.28585293810671</v>
+        <v>53.28585293810674</v>
       </c>
       <c r="T28" t="n">
-        <v>62.35648327262695</v>
+        <v>62.35648327262697</v>
       </c>
       <c r="U28" t="n">
         <v>121.0689242203921</v>
       </c>
       <c r="V28" t="n">
-        <v>87.9658407137008</v>
+        <v>87.96584071370083</v>
       </c>
       <c r="W28" t="n">
         <v>121.1220665341772</v>
       </c>
       <c r="X28" t="n">
-        <v>61.1698495790709</v>
+        <v>61.16984957907093</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.77816351452987</v>
+        <v>53.77816351452989</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>202.0145853257043</v>
       </c>
       <c r="D29" t="n">
-        <v>191.63422240136</v>
+        <v>191.6342224013601</v>
       </c>
       <c r="E29" t="n">
         <v>218.1475254020491</v>
@@ -2807,10 +2807,10 @@
         <v>249.3596420767516</v>
       </c>
       <c r="H29" t="n">
-        <v>167.800700416566</v>
+        <v>167.8007004165661</v>
       </c>
       <c r="I29" t="n">
-        <v>20.02865584088113</v>
+        <v>20.02865584088116</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>28.93982322889946</v>
+        <v>28.93982322889948</v>
       </c>
       <c r="T29" t="n">
-        <v>55.69811355019309</v>
+        <v>55.69811355019311</v>
       </c>
       <c r="U29" t="n">
-        <v>86.46528418539879</v>
+        <v>86.46528418539881</v>
       </c>
       <c r="V29" t="n">
         <v>163.562711169281</v>
       </c>
       <c r="W29" t="n">
-        <v>185.5596066473162</v>
+        <v>185.5596066473163</v>
       </c>
       <c r="X29" t="n">
-        <v>205.891088777931</v>
+        <v>205.8910887779311</v>
       </c>
       <c r="Y29" t="n">
         <v>221.7165613979975</v>
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.4016152571064708</v>
+        <v>0.4016152571064993</v>
       </c>
       <c r="C30" t="n">
-        <v>6.055073574162634</v>
+        <v>6.055073574162662</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>32.28063304949951</v>
+        <v>32.28063304949954</v>
       </c>
       <c r="U30" t="n">
-        <v>59.66820008982472</v>
+        <v>59.66820008982474</v>
       </c>
       <c r="V30" t="n">
-        <v>66.93822068641677</v>
+        <v>66.9382206864168</v>
       </c>
       <c r="W30" t="n">
-        <v>85.01883639676169</v>
+        <v>85.01883639676171</v>
       </c>
       <c r="X30" t="n">
-        <v>39.49111925523991</v>
+        <v>39.49111925523994</v>
       </c>
       <c r="Y30" t="n">
-        <v>38.70064106534767</v>
+        <v>38.7006410653477</v>
       </c>
     </row>
     <row r="31">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15.11318113744545</v>
+        <v>15.11318113744548</v>
       </c>
       <c r="C31" t="n">
-        <v>2.366042577963981</v>
+        <v>2.366042577964009</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.683755257251283</v>
+        <v>2.683755257251311</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>53.28585293810671</v>
+        <v>53.28585293810674</v>
       </c>
       <c r="T31" t="n">
-        <v>62.35648327262695</v>
+        <v>62.35648327262697</v>
       </c>
       <c r="U31" t="n">
         <v>121.0689242203921</v>
       </c>
       <c r="V31" t="n">
-        <v>87.9658407137008</v>
+        <v>87.96584071370083</v>
       </c>
       <c r="W31" t="n">
         <v>121.1220665341772</v>
       </c>
       <c r="X31" t="n">
-        <v>61.1698495790709</v>
+        <v>61.16984957907093</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.77816351452987</v>
+        <v>53.77816351452989</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>218.7458996381566</v>
+        <v>218.7458996381567</v>
       </c>
       <c r="C32" t="n">
         <v>202.0145853257042</v>
@@ -3035,19 +3035,19 @@
         <v>191.63422240136</v>
       </c>
       <c r="E32" t="n">
-        <v>218.147525402049</v>
+        <v>218.1475254020491</v>
       </c>
       <c r="F32" t="n">
-        <v>242.3233531273024</v>
+        <v>242.3233531273025</v>
       </c>
       <c r="G32" t="n">
-        <v>249.3596420767515</v>
+        <v>249.3596420767516</v>
       </c>
       <c r="H32" t="n">
         <v>167.800700416566</v>
       </c>
       <c r="I32" t="n">
-        <v>20.02865584088107</v>
+        <v>20.0286558408811</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>28.9398232288994</v>
+        <v>28.93982322889943</v>
       </c>
       <c r="T32" t="n">
-        <v>55.69811355019303</v>
+        <v>55.69811355019306</v>
       </c>
       <c r="U32" t="n">
-        <v>86.46528418539873</v>
+        <v>86.46528418539876</v>
       </c>
       <c r="V32" t="n">
-        <v>163.5627111692809</v>
+        <v>163.562711169281</v>
       </c>
       <c r="W32" t="n">
         <v>185.5596066473162</v>
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.401615257106414</v>
+        <v>0.4016152571064424</v>
       </c>
       <c r="C33" t="n">
-        <v>6.055073574162577</v>
+        <v>6.055073574162606</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>32.28063304949945</v>
+        <v>32.28063304949948</v>
       </c>
       <c r="U33" t="n">
-        <v>59.66820008982466</v>
+        <v>59.66820008982469</v>
       </c>
       <c r="V33" t="n">
-        <v>66.93822068641671</v>
+        <v>66.93822068641674</v>
       </c>
       <c r="W33" t="n">
-        <v>85.01883639676163</v>
+        <v>85.01883639676166</v>
       </c>
       <c r="X33" t="n">
-        <v>39.49111925523985</v>
+        <v>39.49111925523988</v>
       </c>
       <c r="Y33" t="n">
-        <v>38.70064106534761</v>
+        <v>38.70064106534764</v>
       </c>
     </row>
     <row r="34">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.11318113744539</v>
+        <v>15.11318113744542</v>
       </c>
       <c r="C34" t="n">
-        <v>2.366042577963924</v>
+        <v>2.366042577963952</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.683755257251226</v>
+        <v>2.683755257251255</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>53.28585293810666</v>
+        <v>53.28585293810669</v>
       </c>
       <c r="T34" t="n">
-        <v>62.35648327262689</v>
+        <v>62.35648327262692</v>
       </c>
       <c r="U34" t="n">
         <v>121.0689242203921</v>
       </c>
       <c r="V34" t="n">
-        <v>87.96584071370074</v>
+        <v>87.96584071370077</v>
       </c>
       <c r="W34" t="n">
-        <v>121.1220665341771</v>
+        <v>121.1220665341772</v>
       </c>
       <c r="X34" t="n">
-        <v>61.16984957907084</v>
+        <v>61.16984957907087</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.77816351452981</v>
+        <v>53.77816351452984</v>
       </c>
     </row>
     <row r="35">
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>189.8060764092571</v>
+        <v>189.8060764092572</v>
       </c>
       <c r="C35" t="n">
-        <v>173.0747620968047</v>
+        <v>173.0747620968048</v>
       </c>
       <c r="D35" t="n">
         <v>162.6943991724605</v>
@@ -3275,10 +3275,10 @@
         <v>189.2077021731496</v>
       </c>
       <c r="F35" t="n">
-        <v>213.3835298984029</v>
+        <v>213.383529898403</v>
       </c>
       <c r="G35" t="n">
-        <v>220.419818847852</v>
+        <v>220.4198188478521</v>
       </c>
       <c r="H35" t="n">
         <v>138.8608771876665</v>
@@ -3317,13 +3317,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>26.75829032129355</v>
+        <v>26.7582903212936</v>
       </c>
       <c r="U35" t="n">
-        <v>57.52546095649924</v>
+        <v>57.5254609564993</v>
       </c>
       <c r="V35" t="n">
-        <v>134.6228879403814</v>
+        <v>134.6228879403815</v>
       </c>
       <c r="W35" t="n">
         <v>156.6197834184167</v>
@@ -3332,7 +3332,7 @@
         <v>176.9512655490315</v>
       </c>
       <c r="Y35" t="n">
-        <v>192.7767381690979</v>
+        <v>192.776738169098</v>
       </c>
     </row>
     <row r="36">
@@ -3396,22 +3396,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>3.340809820599966</v>
+        <v>3.340809820600023</v>
       </c>
       <c r="U36" t="n">
-        <v>30.72837686092517</v>
+        <v>30.72837686092523</v>
       </c>
       <c r="V36" t="n">
-        <v>37.99839745751723</v>
+        <v>37.99839745751729</v>
       </c>
       <c r="W36" t="n">
-        <v>56.07901316786214</v>
+        <v>56.0790131678622</v>
       </c>
       <c r="X36" t="n">
-        <v>10.55129602634037</v>
+        <v>10.55129602634042</v>
       </c>
       <c r="Y36" t="n">
-        <v>9.760817836448126</v>
+        <v>9.760817836448183</v>
       </c>
     </row>
     <row r="37">
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.34602970920717</v>
+        <v>24.34602970920723</v>
       </c>
       <c r="T37" t="n">
-        <v>33.4166600437274</v>
+        <v>33.41666004372746</v>
       </c>
       <c r="U37" t="n">
-        <v>92.12910099149258</v>
+        <v>92.12910099149263</v>
       </c>
       <c r="V37" t="n">
-        <v>59.02601748480126</v>
+        <v>59.02601748480132</v>
       </c>
       <c r="W37" t="n">
-        <v>92.18224330527764</v>
+        <v>92.18224330527769</v>
       </c>
       <c r="X37" t="n">
-        <v>32.23002635017136</v>
+        <v>32.23002635017141</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.83834028563032</v>
+        <v>24.83834028563038</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>189.8060764092571</v>
+        <v>189.8060764092572</v>
       </c>
       <c r="C38" t="n">
-        <v>173.0747620968047</v>
+        <v>173.0747620968048</v>
       </c>
       <c r="D38" t="n">
-        <v>162.6943991724605</v>
+        <v>162.6943991724606</v>
       </c>
       <c r="E38" t="n">
         <v>189.2077021731496</v>
       </c>
       <c r="F38" t="n">
-        <v>213.3835298984029</v>
+        <v>213.383529898403</v>
       </c>
       <c r="G38" t="n">
-        <v>220.419818847852</v>
+        <v>220.4198188478521</v>
       </c>
       <c r="H38" t="n">
-        <v>138.8608771876665</v>
+        <v>138.8608771876666</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>26.75829032129355</v>
+        <v>26.75829032129363</v>
       </c>
       <c r="U38" t="n">
-        <v>57.52546095649924</v>
+        <v>57.52546095649933</v>
       </c>
       <c r="V38" t="n">
-        <v>134.6228879403814</v>
+        <v>134.6228879403815</v>
       </c>
       <c r="W38" t="n">
-        <v>156.6197834184167</v>
+        <v>156.6197834184168</v>
       </c>
       <c r="X38" t="n">
-        <v>176.9512655490315</v>
+        <v>176.9512655490316</v>
       </c>
       <c r="Y38" t="n">
-        <v>192.7767381690979</v>
+        <v>192.776738169098</v>
       </c>
     </row>
     <row r="39">
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>3.340809820599966</v>
+        <v>3.340809820600051</v>
       </c>
       <c r="U39" t="n">
-        <v>30.72837686092517</v>
+        <v>30.72837686092526</v>
       </c>
       <c r="V39" t="n">
-        <v>37.99839745751723</v>
+        <v>37.99839745751731</v>
       </c>
       <c r="W39" t="n">
-        <v>56.07901316786214</v>
+        <v>56.07901316786223</v>
       </c>
       <c r="X39" t="n">
-        <v>10.55129602634037</v>
+        <v>10.55129602634045</v>
       </c>
       <c r="Y39" t="n">
-        <v>9.760817836448126</v>
+        <v>9.760817836448211</v>
       </c>
     </row>
     <row r="40">
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.34602970920717</v>
+        <v>24.34602970920726</v>
       </c>
       <c r="T40" t="n">
-        <v>33.4166600437274</v>
+        <v>33.41666004372749</v>
       </c>
       <c r="U40" t="n">
-        <v>92.12910099149258</v>
+        <v>92.12910099149266</v>
       </c>
       <c r="V40" t="n">
-        <v>59.02601748480126</v>
+        <v>59.02601748480134</v>
       </c>
       <c r="W40" t="n">
-        <v>92.18224330527764</v>
+        <v>92.18224330527772</v>
       </c>
       <c r="X40" t="n">
-        <v>32.23002635017136</v>
+        <v>32.23002635017144</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.83834028563032</v>
+        <v>24.83834028563041</v>
       </c>
     </row>
     <row r="41">
@@ -3986,13 +3986,13 @@
         <v>189.2077021731496</v>
       </c>
       <c r="F44" t="n">
-        <v>213.383529898403</v>
+        <v>213.3835298984036</v>
       </c>
       <c r="G44" t="n">
         <v>220.4198188478521</v>
       </c>
       <c r="H44" t="n">
-        <v>138.8608771876666</v>
+        <v>138.8608771876665</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>156.3311886300988</v>
+        <v>266.9993475032755</v>
       </c>
       <c r="C11" t="n">
-        <v>156.3311886300988</v>
+        <v>266.9993475032755</v>
       </c>
       <c r="D11" t="n">
-        <v>156.3311886300988</v>
+        <v>156.3311886300986</v>
       </c>
       <c r="E11" t="n">
-        <v>119.4330770559325</v>
+        <v>45.66302975692163</v>
       </c>
       <c r="F11" t="n">
-        <v>119.4330770559325</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="G11" t="n">
         <v>8.764918182755611</v>
@@ -5036,55 +5036,55 @@
         <v>8.764918182755611</v>
       </c>
       <c r="I11" t="n">
-        <v>29.62098450621253</v>
+        <v>29.6209845062125</v>
       </c>
       <c r="J11" t="n">
-        <v>94.82058251648871</v>
+        <v>102.9522777021146</v>
       </c>
       <c r="K11" t="n">
-        <v>94.82058251648871</v>
+        <v>160.5812000320951</v>
       </c>
       <c r="L11" t="n">
-        <v>153.2122745730607</v>
+        <v>160.5812000320951</v>
       </c>
       <c r="M11" t="n">
-        <v>226.0720871705971</v>
+        <v>233.4410126296314</v>
       </c>
       <c r="N11" t="n">
-        <v>301.3082927999555</v>
+        <v>233.4410126296314</v>
       </c>
       <c r="O11" t="n">
-        <v>370.7187054350952</v>
+        <v>332.9775192221131</v>
       </c>
       <c r="P11" t="n">
-        <v>426.2118985284618</v>
+        <v>337.571197008852</v>
       </c>
       <c r="Q11" t="n">
-        <v>426.2118985284618</v>
+        <v>397.6759205270594</v>
       </c>
       <c r="R11" t="n">
-        <v>426.2118985284618</v>
+        <v>426.2118985284619</v>
       </c>
       <c r="S11" t="n">
         <v>438.2459091377806</v>
       </c>
       <c r="T11" t="n">
-        <v>423.4956828254024</v>
+        <v>423.4956828254023</v>
       </c>
       <c r="U11" t="n">
-        <v>377.6675063764526</v>
+        <v>377.6675063764524</v>
       </c>
       <c r="V11" t="n">
-        <v>266.9993475032757</v>
+        <v>377.6675063764524</v>
       </c>
       <c r="W11" t="n">
-        <v>266.9993475032757</v>
+        <v>266.9993475032755</v>
       </c>
       <c r="X11" t="n">
-        <v>266.9993475032757</v>
+        <v>266.9993475032755</v>
       </c>
       <c r="Y11" t="n">
-        <v>156.3311886300988</v>
+        <v>266.9993475032755</v>
       </c>
     </row>
     <row r="12">
@@ -5094,67 +5094,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>49.05175468414943</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="C12" t="n">
-        <v>83.74166745165763</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="D12" t="n">
-        <v>83.74166745165763</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="E12" t="n">
-        <v>83.74166745165763</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="F12" t="n">
-        <v>83.74166745165763</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="G12" t="n">
-        <v>83.74166745165763</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="H12" t="n">
-        <v>83.74166745165763</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="I12" t="n">
-        <v>89.26971199298983</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="J12" t="n">
-        <v>89.26971199298983</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="K12" t="n">
-        <v>89.26971199298983</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="L12" t="n">
-        <v>89.26971199298983</v>
+        <v>97.99632087991462</v>
       </c>
       <c r="M12" t="n">
-        <v>89.26971199298983</v>
+        <v>97.99632087991462</v>
       </c>
       <c r="N12" t="n">
-        <v>89.26971199298983</v>
+        <v>97.99632087991462</v>
       </c>
       <c r="O12" t="n">
-        <v>89.26971199298983</v>
+        <v>97.99632087991462</v>
       </c>
       <c r="P12" t="n">
-        <v>89.26971199298983</v>
+        <v>97.99632087991462</v>
       </c>
       <c r="Q12" t="n">
-        <v>89.26971199298983</v>
+        <v>97.99632087991462</v>
       </c>
       <c r="R12" t="n">
-        <v>89.26971199298983</v>
+        <v>97.99632087991462</v>
       </c>
       <c r="S12" t="n">
-        <v>89.26971199298983</v>
+        <v>97.99632087991462</v>
       </c>
       <c r="T12" t="n">
-        <v>97.99632087991453</v>
+        <v>97.99632087991462</v>
       </c>
       <c r="U12" t="n">
-        <v>79.23590614366594</v>
+        <v>79.235906143666</v>
       </c>
       <c r="V12" t="n">
-        <v>53.13203625934457</v>
+        <v>53.1320362593446</v>
       </c>
       <c r="W12" t="n">
         <v>8.764918182755611</v>
@@ -5191,55 +5191,55 @@
         <v>8.764918182755611</v>
       </c>
       <c r="H13" t="n">
-        <v>8.764918182755611</v>
+        <v>54.8237436088445</v>
       </c>
       <c r="I13" t="n">
-        <v>8.764918182755611</v>
+        <v>54.8237436088445</v>
       </c>
       <c r="J13" t="n">
-        <v>8.764918182755611</v>
+        <v>54.8237436088445</v>
       </c>
       <c r="K13" t="n">
-        <v>115.3069998117928</v>
+        <v>54.8237436088445</v>
       </c>
       <c r="L13" t="n">
-        <v>115.3069998117928</v>
+        <v>54.8237436088445</v>
       </c>
       <c r="M13" t="n">
-        <v>115.3069998117928</v>
+        <v>76.89693031808177</v>
       </c>
       <c r="N13" t="n">
-        <v>115.3069998117928</v>
+        <v>185.3627928296825</v>
       </c>
       <c r="O13" t="n">
-        <v>185.3627928296823</v>
+        <v>185.3627928296825</v>
       </c>
       <c r="P13" t="n">
-        <v>284.6027507747095</v>
+        <v>284.6027507747096</v>
       </c>
       <c r="Q13" t="n">
-        <v>284.6027507747095</v>
+        <v>284.6027507747096</v>
       </c>
       <c r="R13" t="n">
-        <v>284.6027507747095</v>
+        <v>284.6027507747096</v>
       </c>
       <c r="S13" t="n">
-        <v>272.2891513432265</v>
+        <v>272.2891513432267</v>
       </c>
       <c r="T13" t="n">
-        <v>250.8132990485918</v>
+        <v>250.813299048592</v>
       </c>
       <c r="U13" t="n">
-        <v>170.0319508471236</v>
+        <v>170.0319508471237</v>
       </c>
       <c r="V13" t="n">
-        <v>122.6880607332224</v>
+        <v>122.6880607332225</v>
       </c>
       <c r="W13" t="n">
-        <v>41.85303342692081</v>
+        <v>41.85303342692087</v>
       </c>
       <c r="X13" t="n">
-        <v>21.57580102476698</v>
+        <v>21.57580102476701</v>
       </c>
       <c r="Y13" t="n">
         <v>8.764918182755611</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>156.3311886300988</v>
+        <v>119.4330770559325</v>
       </c>
       <c r="C14" t="n">
-        <v>156.3311886300988</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="D14" t="n">
-        <v>156.3311886300988</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="E14" t="n">
-        <v>119.4330770559325</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="F14" t="n">
-        <v>119.4330770559325</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="G14" t="n">
-        <v>119.4330770559325</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="H14" t="n">
         <v>8.764918182755611</v>
       </c>
       <c r="I14" t="n">
-        <v>29.62098450621253</v>
+        <v>29.6209845062125</v>
       </c>
       <c r="J14" t="n">
-        <v>102.9522777021147</v>
+        <v>29.6209845062125</v>
       </c>
       <c r="K14" t="n">
-        <v>160.5812000320952</v>
+        <v>29.6209845062125</v>
       </c>
       <c r="L14" t="n">
-        <v>160.5812000320952</v>
+        <v>88.01267656278449</v>
       </c>
       <c r="M14" t="n">
-        <v>219.7996453803189</v>
+        <v>88.01267656278449</v>
       </c>
       <c r="N14" t="n">
-        <v>328.2655078919196</v>
+        <v>188.2064149316874</v>
       </c>
       <c r="O14" t="n">
-        <v>397.6759205270593</v>
+        <v>296.6722774432881</v>
       </c>
       <c r="P14" t="n">
-        <v>397.6759205270593</v>
+        <v>352.1654705366547</v>
       </c>
       <c r="Q14" t="n">
-        <v>397.6759205270593</v>
+        <v>397.6759205270594</v>
       </c>
       <c r="R14" t="n">
-        <v>426.2118985284618</v>
+        <v>426.2118985284619</v>
       </c>
       <c r="S14" t="n">
         <v>438.2459091377806</v>
       </c>
       <c r="T14" t="n">
-        <v>423.4956828254024</v>
+        <v>438.2459091377806</v>
       </c>
       <c r="U14" t="n">
-        <v>377.6675063764527</v>
+        <v>392.4177326888309</v>
       </c>
       <c r="V14" t="n">
-        <v>377.6675063764527</v>
+        <v>340.7693948022864</v>
       </c>
       <c r="W14" t="n">
-        <v>266.9993475032757</v>
+        <v>230.1012359291095</v>
       </c>
       <c r="X14" t="n">
-        <v>266.9993475032757</v>
+        <v>119.4330770559325</v>
       </c>
       <c r="Y14" t="n">
-        <v>156.3311886300988</v>
+        <v>119.4330770559325</v>
       </c>
     </row>
     <row r="15">
@@ -5337,61 +5337,61 @@
         <v>8.764918182755611</v>
       </c>
       <c r="D15" t="n">
-        <v>8.764918182755611</v>
+        <v>68.11885969949167</v>
       </c>
       <c r="E15" t="n">
-        <v>8.764918182755611</v>
+        <v>68.11885969949167</v>
       </c>
       <c r="F15" t="n">
-        <v>70.69898927567701</v>
+        <v>68.11885969949167</v>
       </c>
       <c r="G15" t="n">
-        <v>70.69898927567701</v>
+        <v>68.11885969949167</v>
       </c>
       <c r="H15" t="n">
-        <v>70.69898927567701</v>
+        <v>97.99632087991462</v>
       </c>
       <c r="I15" t="n">
-        <v>70.69898927567701</v>
+        <v>97.99632087991462</v>
       </c>
       <c r="J15" t="n">
-        <v>70.69898927567701</v>
+        <v>97.99632087991462</v>
       </c>
       <c r="K15" t="n">
-        <v>70.69898927567701</v>
+        <v>97.99632087991462</v>
       </c>
       <c r="L15" t="n">
-        <v>70.69898927567701</v>
+        <v>97.99632087991462</v>
       </c>
       <c r="M15" t="n">
-        <v>70.69898927567701</v>
+        <v>97.99632087991462</v>
       </c>
       <c r="N15" t="n">
-        <v>70.69898927567701</v>
+        <v>97.99632087991462</v>
       </c>
       <c r="O15" t="n">
-        <v>70.69898927567701</v>
+        <v>97.99632087991462</v>
       </c>
       <c r="P15" t="n">
-        <v>70.69898927567701</v>
+        <v>97.99632087991462</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.99632087991453</v>
+        <v>97.99632087991462</v>
       </c>
       <c r="R15" t="n">
-        <v>97.99632087991453</v>
+        <v>97.99632087991462</v>
       </c>
       <c r="S15" t="n">
-        <v>97.99632087991453</v>
+        <v>97.99632087991462</v>
       </c>
       <c r="T15" t="n">
-        <v>97.99632087991453</v>
+        <v>97.99632087991462</v>
       </c>
       <c r="U15" t="n">
-        <v>79.23590614366594</v>
+        <v>79.235906143666</v>
       </c>
       <c r="V15" t="n">
-        <v>53.13203625934457</v>
+        <v>53.1320362593446</v>
       </c>
       <c r="W15" t="n">
         <v>8.764918182755611</v>
@@ -5419,64 +5419,64 @@
         <v>8.764918182755611</v>
       </c>
       <c r="E16" t="n">
-        <v>8.764918182755611</v>
+        <v>67.2652811069236</v>
       </c>
       <c r="F16" t="n">
-        <v>14.057232989384</v>
+        <v>67.2652811069236</v>
       </c>
       <c r="G16" t="n">
-        <v>14.057232989384</v>
+        <v>105.292799008174</v>
       </c>
       <c r="H16" t="n">
-        <v>14.057232989384</v>
+        <v>151.3516244342629</v>
       </c>
       <c r="I16" t="n">
-        <v>72.84755838726936</v>
+        <v>151.3516244342629</v>
       </c>
       <c r="J16" t="n">
-        <v>181.31342089887</v>
+        <v>151.3516244342629</v>
       </c>
       <c r="K16" t="n">
-        <v>181.31342089887</v>
+        <v>208.3106231413508</v>
       </c>
       <c r="L16" t="n">
-        <v>181.31342089887</v>
+        <v>208.3106231413508</v>
       </c>
       <c r="M16" t="n">
-        <v>181.31342089887</v>
+        <v>208.3106231413508</v>
       </c>
       <c r="N16" t="n">
-        <v>181.31342089887</v>
+        <v>208.3106231413508</v>
       </c>
       <c r="O16" t="n">
-        <v>284.6027507747095</v>
+        <v>241.7795638626644</v>
       </c>
       <c r="P16" t="n">
-        <v>284.6027507747095</v>
+        <v>241.7795638626644</v>
       </c>
       <c r="Q16" t="n">
-        <v>284.6027507747095</v>
+        <v>241.7795638626644</v>
       </c>
       <c r="R16" t="n">
-        <v>284.6027507747095</v>
+        <v>284.6027507747096</v>
       </c>
       <c r="S16" t="n">
-        <v>272.2891513432265</v>
+        <v>272.2891513432267</v>
       </c>
       <c r="T16" t="n">
-        <v>250.8132990485918</v>
+        <v>250.813299048592</v>
       </c>
       <c r="U16" t="n">
-        <v>170.0319508471236</v>
+        <v>170.0319508471237</v>
       </c>
       <c r="V16" t="n">
-        <v>122.6880607332224</v>
+        <v>122.6880607332225</v>
       </c>
       <c r="W16" t="n">
-        <v>41.85303342692081</v>
+        <v>41.85303342692087</v>
       </c>
       <c r="X16" t="n">
-        <v>21.57580102476698</v>
+        <v>21.57580102476701</v>
       </c>
       <c r="Y16" t="n">
         <v>8.764918182755611</v>
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>275.9122174255209</v>
+        <v>275.9122174255208</v>
       </c>
       <c r="C17" t="n">
-        <v>241.3527377193205</v>
+        <v>241.3527377193204</v>
       </c>
       <c r="D17" t="n">
-        <v>217.2784730882155</v>
+        <v>217.2784730882154</v>
       </c>
       <c r="E17" t="n">
-        <v>166.4230943150002</v>
+        <v>166.4230943150001</v>
       </c>
       <c r="F17" t="n">
         <v>91.1476875364784</v>
@@ -5510,34 +5510,34 @@
         <v>8.764918182755611</v>
       </c>
       <c r="I17" t="n">
-        <v>32.32625953412297</v>
+        <v>117.2307806943563</v>
       </c>
       <c r="J17" t="n">
-        <v>32.32625953412297</v>
+        <v>117.2307806943563</v>
       </c>
       <c r="K17" t="n">
-        <v>32.32625953412297</v>
+        <v>140.7921220457236</v>
       </c>
       <c r="L17" t="n">
-        <v>140.7921220457237</v>
+        <v>140.7921220457236</v>
       </c>
       <c r="M17" t="n">
-        <v>140.7921220457237</v>
+        <v>249.2579845573243</v>
       </c>
       <c r="N17" t="n">
-        <v>140.7921220457237</v>
+        <v>249.2579845573243</v>
       </c>
       <c r="O17" t="n">
-        <v>140.7921220457237</v>
+        <v>357.723847068925</v>
       </c>
       <c r="P17" t="n">
-        <v>140.7921220457237</v>
+        <v>357.723847068925</v>
       </c>
       <c r="Q17" t="n">
-        <v>140.7921220457237</v>
+        <v>357.723847068925</v>
       </c>
       <c r="R17" t="n">
-        <v>249.2579845573243</v>
+        <v>357.723847068925</v>
       </c>
       <c r="S17" t="n">
         <v>357.723847068925</v>
@@ -5546,19 +5546,19 @@
         <v>357.723847068925</v>
       </c>
       <c r="U17" t="n">
-        <v>438.2459091377806</v>
+        <v>438.2459091377805</v>
       </c>
       <c r="V17" t="n">
-        <v>438.2459091377806</v>
+        <v>438.2459091377805</v>
       </c>
       <c r="W17" t="n">
-        <v>420.3076200158109</v>
+        <v>420.3076200158108</v>
       </c>
       <c r="X17" t="n">
-        <v>381.8324802568565</v>
+        <v>381.8324802568563</v>
       </c>
       <c r="Y17" t="n">
-        <v>327.3720146190469</v>
+        <v>327.3720146190468</v>
       </c>
     </row>
     <row r="18">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>275.9122174255209</v>
+        <v>275.9122174255208</v>
       </c>
       <c r="C20" t="n">
-        <v>241.3527377193207</v>
+        <v>241.3527377193204</v>
       </c>
       <c r="D20" t="n">
-        <v>217.2784730882157</v>
+        <v>217.2784730882153</v>
       </c>
       <c r="E20" t="n">
-        <v>166.4230943150006</v>
+        <v>166.4230943150001</v>
       </c>
       <c r="F20" t="n">
-        <v>91.14768753647843</v>
+        <v>91.1476875364784</v>
       </c>
       <c r="G20" t="n">
         <v>8.764918182755611</v>
@@ -5747,37 +5747,37 @@
         <v>8.764918182755611</v>
       </c>
       <c r="I20" t="n">
-        <v>8.764918182755611</v>
+        <v>117.2307806943563</v>
       </c>
       <c r="J20" t="n">
-        <v>8.764918182755611</v>
+        <v>117.2307806943563</v>
       </c>
       <c r="K20" t="n">
-        <v>8.764918182755611</v>
+        <v>117.2307806943563</v>
       </c>
       <c r="L20" t="n">
-        <v>8.764918182755611</v>
+        <v>117.2307806943563</v>
       </c>
       <c r="M20" t="n">
-        <v>8.764918182755611</v>
+        <v>225.696643205957</v>
       </c>
       <c r="N20" t="n">
-        <v>8.764918182755611</v>
+        <v>245.0623752025122</v>
       </c>
       <c r="O20" t="n">
-        <v>8.764918182755611</v>
+        <v>245.0623752025122</v>
       </c>
       <c r="P20" t="n">
-        <v>117.2307806943563</v>
+        <v>245.0623752025122</v>
       </c>
       <c r="Q20" t="n">
-        <v>225.696643205957</v>
+        <v>353.5282377141128</v>
       </c>
       <c r="R20" t="n">
-        <v>225.696643205957</v>
+        <v>353.5282377141128</v>
       </c>
       <c r="S20" t="n">
-        <v>334.1625057175577</v>
+        <v>353.5282377141128</v>
       </c>
       <c r="T20" t="n">
         <v>353.5282377141128</v>
@@ -5789,13 +5789,13 @@
         <v>438.2459091377806</v>
       </c>
       <c r="W20" t="n">
-        <v>420.307620015811</v>
+        <v>420.3076200158108</v>
       </c>
       <c r="X20" t="n">
-        <v>381.8324802568565</v>
+        <v>381.8324802568562</v>
       </c>
       <c r="Y20" t="n">
-        <v>327.3720146190468</v>
+        <v>327.3720146190467</v>
       </c>
     </row>
     <row r="21">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>275.9122174255206</v>
+        <v>275.9122174255207</v>
       </c>
       <c r="C23" t="n">
-        <v>241.3527377193203</v>
+        <v>241.3527377193205</v>
       </c>
       <c r="D23" t="n">
-        <v>217.2784730882153</v>
+        <v>217.2784730882154</v>
       </c>
       <c r="E23" t="n">
         <v>166.4230943150001</v>
       </c>
       <c r="F23" t="n">
-        <v>91.1476875364784</v>
+        <v>91.14768753647826</v>
       </c>
       <c r="G23" t="n">
         <v>8.764918182755611</v>
@@ -5984,55 +5984,55 @@
         <v>8.764918182755611</v>
       </c>
       <c r="I23" t="n">
-        <v>117.2307806943563</v>
+        <v>8.764918182755611</v>
       </c>
       <c r="J23" t="n">
-        <v>117.2307806943563</v>
+        <v>112.8483216029785</v>
       </c>
       <c r="K23" t="n">
-        <v>117.2307806943563</v>
+        <v>112.8483216029785</v>
       </c>
       <c r="L23" t="n">
-        <v>117.2307806943563</v>
+        <v>112.8483216029785</v>
       </c>
       <c r="M23" t="n">
-        <v>117.2307806943563</v>
+        <v>221.3141841145792</v>
       </c>
       <c r="N23" t="n">
-        <v>117.2307806943563</v>
+        <v>221.3141841145792</v>
       </c>
       <c r="O23" t="n">
-        <v>117.2307806943563</v>
+        <v>221.3141841145792</v>
       </c>
       <c r="P23" t="n">
-        <v>225.696643205957</v>
+        <v>329.7800466261799</v>
       </c>
       <c r="Q23" t="n">
-        <v>225.696643205957</v>
+        <v>438.2459091377806</v>
       </c>
       <c r="R23" t="n">
-        <v>334.1625057175577</v>
+        <v>438.2459091377806</v>
       </c>
       <c r="S23" t="n">
-        <v>334.1625057175577</v>
+        <v>438.2459091377806</v>
       </c>
       <c r="T23" t="n">
-        <v>357.723847068925</v>
+        <v>438.2459091377806</v>
       </c>
       <c r="U23" t="n">
         <v>438.2459091377806</v>
       </c>
       <c r="V23" t="n">
-        <v>438.2459091377804</v>
+        <v>438.2459091377806</v>
       </c>
       <c r="W23" t="n">
-        <v>420.3076200158105</v>
+        <v>420.3076200158107</v>
       </c>
       <c r="X23" t="n">
-        <v>381.832480256856</v>
+        <v>381.8324802568562</v>
       </c>
       <c r="Y23" t="n">
-        <v>327.3720146190465</v>
+        <v>327.3720146190466</v>
       </c>
     </row>
     <row r="24">
@@ -6203,73 +6203,73 @@
         <v>1355.01985813494</v>
       </c>
       <c r="C26" t="n">
-        <v>1150.96472144231</v>
+        <v>1150.964721442309</v>
       </c>
       <c r="D26" t="n">
-        <v>957.3947998247745</v>
+        <v>957.3947998247738</v>
       </c>
       <c r="E26" t="n">
-        <v>737.0437640651289</v>
+        <v>737.0437640651282</v>
       </c>
       <c r="F26" t="n">
-        <v>492.2727003001769</v>
+        <v>492.2727003001761</v>
       </c>
       <c r="G26" t="n">
-        <v>240.3942739600226</v>
+        <v>240.3942739600227</v>
       </c>
       <c r="H26" t="n">
-        <v>70.89861697359237</v>
+        <v>70.89861697359238</v>
       </c>
       <c r="I26" t="n">
         <v>50.66765147775283</v>
       </c>
       <c r="J26" t="n">
-        <v>257.4163840488929</v>
+        <v>257.4163840488928</v>
       </c>
       <c r="K26" t="n">
-        <v>444.7801823065095</v>
+        <v>549.9058240683989</v>
       </c>
       <c r="L26" t="n">
-        <v>892.511425258296</v>
+        <v>834.3162617704795</v>
       </c>
       <c r="M26" t="n">
-        <v>1387.505936334123</v>
+        <v>1329.310772846307</v>
       </c>
       <c r="N26" t="n">
-        <v>1814.154936244315</v>
+        <v>1650.834130994609</v>
       </c>
       <c r="O26" t="n">
-        <v>2234.952779901648</v>
+        <v>2071.631974651942</v>
       </c>
       <c r="P26" t="n">
-        <v>2417.764682072738</v>
+        <v>2254.443876823032</v>
       </c>
       <c r="Q26" t="n">
         <v>2477.869405590945</v>
       </c>
       <c r="R26" t="n">
-        <v>2533.382573887642</v>
+        <v>2533.382573887641</v>
       </c>
       <c r="S26" t="n">
-        <v>2504.150429211986</v>
+        <v>2504.150429211985</v>
       </c>
       <c r="T26" t="n">
-        <v>2447.889708454215</v>
+        <v>2447.889708454214</v>
       </c>
       <c r="U26" t="n">
         <v>2360.551037559872</v>
       </c>
       <c r="V26" t="n">
-        <v>2195.336177792922</v>
+        <v>2195.336177792921</v>
       </c>
       <c r="W26" t="n">
         <v>2007.902231684521</v>
       </c>
       <c r="X26" t="n">
-        <v>1799.931434939137</v>
+        <v>1799.931434939136</v>
       </c>
       <c r="Y26" t="n">
-        <v>1575.975312314897</v>
+        <v>1575.975312314896</v>
       </c>
     </row>
     <row r="27">
@@ -6279,7 +6279,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>56.78388741125045</v>
+        <v>56.78388741125047</v>
       </c>
       <c r="C27" t="n">
         <v>50.66765147775283</v>
@@ -6306,49 +6306,49 @@
         <v>50.66765147775283</v>
       </c>
       <c r="K27" t="n">
-        <v>177.854198080079</v>
+        <v>50.66765147775283</v>
       </c>
       <c r="L27" t="n">
-        <v>177.854198080079</v>
+        <v>50.66765147775283</v>
       </c>
       <c r="M27" t="n">
-        <v>177.854198080079</v>
+        <v>50.66765147775283</v>
       </c>
       <c r="N27" t="n">
-        <v>177.854198080079</v>
+        <v>50.66765147775283</v>
       </c>
       <c r="O27" t="n">
-        <v>177.854198080079</v>
+        <v>50.66765147775283</v>
       </c>
       <c r="P27" t="n">
-        <v>177.854198080079</v>
+        <v>382.5407215528635</v>
       </c>
       <c r="Q27" t="n">
-        <v>294.5042396048852</v>
+        <v>382.5407215528635</v>
       </c>
       <c r="R27" t="n">
-        <v>381.3303079568903</v>
+        <v>382.5407215528635</v>
       </c>
       <c r="S27" t="n">
-        <v>382.5407215528633</v>
+        <v>382.5407215528635</v>
       </c>
       <c r="T27" t="n">
-        <v>349.9340215028638</v>
+        <v>349.934021502864</v>
       </c>
       <c r="U27" t="n">
-        <v>289.6631123212227</v>
+        <v>289.6631123212228</v>
       </c>
       <c r="V27" t="n">
-        <v>222.0487479915088</v>
+        <v>222.0487479915089</v>
       </c>
       <c r="W27" t="n">
-        <v>136.1711354695273</v>
+        <v>136.1711354695274</v>
       </c>
       <c r="X27" t="n">
-        <v>96.28111601978998</v>
+        <v>96.28111601979006</v>
       </c>
       <c r="Y27" t="n">
-        <v>57.18955938812567</v>
+        <v>57.18955938812572</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>55.76845737190967</v>
+        <v>53.05759347569627</v>
       </c>
       <c r="C28" t="n">
-        <v>53.37851537396625</v>
+        <v>50.66765147775283</v>
       </c>
       <c r="D28" t="n">
-        <v>53.37851537396625</v>
+        <v>53.37851537396627</v>
       </c>
       <c r="E28" t="n">
-        <v>53.37851537396625</v>
+        <v>53.37851537396627</v>
       </c>
       <c r="F28" t="n">
-        <v>53.37851537396625</v>
+        <v>53.37851537396627</v>
       </c>
       <c r="G28" t="n">
         <v>50.66765147775283</v>
@@ -6385,49 +6385,49 @@
         <v>50.66765147775283</v>
       </c>
       <c r="K28" t="n">
-        <v>63.10787407960906</v>
+        <v>116.5252975008608</v>
       </c>
       <c r="L28" t="n">
-        <v>134.8306911276858</v>
+        <v>351.5689197986434</v>
       </c>
       <c r="M28" t="n">
-        <v>372.7355219766329</v>
+        <v>351.5689197986434</v>
       </c>
       <c r="N28" t="n">
-        <v>372.7355219766329</v>
+        <v>604.1955514685735</v>
       </c>
       <c r="O28" t="n">
-        <v>439.8873106871497</v>
+        <v>604.1955514685735</v>
       </c>
       <c r="P28" t="n">
-        <v>637.4455906143844</v>
+        <v>634.7347267181713</v>
       </c>
       <c r="Q28" t="n">
-        <v>637.4455906143844</v>
+        <v>634.7347267181713</v>
       </c>
       <c r="R28" t="n">
-        <v>637.4455906143844</v>
+        <v>634.7347267181713</v>
       </c>
       <c r="S28" t="n">
-        <v>583.6214967375089</v>
+        <v>580.9106328412958</v>
       </c>
       <c r="T28" t="n">
-        <v>520.6351499974817</v>
+        <v>517.9242861012685</v>
       </c>
       <c r="U28" t="n">
-        <v>398.343307350621</v>
+        <v>395.6324434544077</v>
       </c>
       <c r="V28" t="n">
-        <v>309.4889227913272</v>
+        <v>306.778058895114</v>
       </c>
       <c r="W28" t="n">
-        <v>187.1434010396331</v>
+        <v>184.4325371434198</v>
       </c>
       <c r="X28" t="n">
-        <v>125.3556741920868</v>
+        <v>122.6448102958734</v>
       </c>
       <c r="Y28" t="n">
-        <v>71.03429690468285</v>
+        <v>68.32343300846949</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6437,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1355.01985813494</v>
+        <v>1355.019858134939</v>
       </c>
       <c r="C29" t="n">
-        <v>1150.964721442309</v>
+        <v>1150.964721442308</v>
       </c>
       <c r="D29" t="n">
-        <v>957.3947998247737</v>
+        <v>957.3947998247731</v>
       </c>
       <c r="E29" t="n">
-        <v>737.0437640651281</v>
+        <v>737.0437640651273</v>
       </c>
       <c r="F29" t="n">
-        <v>492.2727003001761</v>
+        <v>492.2727003001752</v>
       </c>
       <c r="G29" t="n">
-        <v>240.3942739600229</v>
+        <v>240.394273960022</v>
       </c>
       <c r="H29" t="n">
-        <v>70.89861697359233</v>
+        <v>70.89861697359237</v>
       </c>
       <c r="I29" t="n">
-        <v>50.6676514777528</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="J29" t="n">
-        <v>94.09557879918688</v>
+        <v>257.4163840488928</v>
       </c>
       <c r="K29" t="n">
-        <v>444.7801823065096</v>
+        <v>444.7801823065095</v>
       </c>
       <c r="L29" t="n">
-        <v>729.1906200085901</v>
+        <v>729.19062000859</v>
       </c>
       <c r="M29" t="n">
-        <v>1060.864325834712</v>
+        <v>1224.185131084417</v>
       </c>
       <c r="N29" t="n">
-        <v>1545.70848923272</v>
+        <v>1709.029294482425</v>
       </c>
       <c r="O29" t="n">
         <v>1966.506332890053</v>
       </c>
       <c r="P29" t="n">
-        <v>2312.639040310849</v>
+        <v>2254.443876823031</v>
       </c>
       <c r="Q29" t="n">
-        <v>2477.869405590944</v>
+        <v>2477.869405590945</v>
       </c>
       <c r="R29" t="n">
         <v>2533.38257388764</v>
@@ -6497,16 +6497,16 @@
         <v>2360.551037559871</v>
       </c>
       <c r="V29" t="n">
-        <v>2195.336177792921</v>
+        <v>2195.33617779292</v>
       </c>
       <c r="W29" t="n">
-        <v>2007.902231684521</v>
+        <v>2007.90223168452</v>
       </c>
       <c r="X29" t="n">
-        <v>1799.931434939136</v>
+        <v>1799.931434939135</v>
       </c>
       <c r="Y29" t="n">
-        <v>1575.975312314896</v>
+        <v>1575.975312314895</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>56.78388741125041</v>
+        <v>56.78388741125045</v>
       </c>
       <c r="C30" t="n">
-        <v>50.6676514777528</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="D30" t="n">
-        <v>69.33715738855966</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="E30" t="n">
-        <v>69.33715738855966</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="F30" t="n">
-        <v>69.33715738855966</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="G30" t="n">
-        <v>98.27287029530466</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="H30" t="n">
-        <v>154.9195765973452</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="I30" t="n">
-        <v>154.9195765973452</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="J30" t="n">
-        <v>154.9195765973452</v>
+        <v>117.8125479244151</v>
       </c>
       <c r="K30" t="n">
-        <v>154.9195765973452</v>
+        <v>117.8125479244151</v>
       </c>
       <c r="L30" t="n">
-        <v>154.9195765973452</v>
+        <v>141.6397986744589</v>
       </c>
       <c r="M30" t="n">
-        <v>244.3868427289406</v>
+        <v>141.6397986744589</v>
       </c>
       <c r="N30" t="n">
-        <v>317.6550366352082</v>
+        <v>382.5407215528635</v>
       </c>
       <c r="O30" t="n">
-        <v>317.6550366352082</v>
+        <v>382.5407215528635</v>
       </c>
       <c r="P30" t="n">
-        <v>317.6550366352082</v>
+        <v>382.5407215528635</v>
       </c>
       <c r="Q30" t="n">
-        <v>381.3303079568902</v>
+        <v>382.5407215528635</v>
       </c>
       <c r="R30" t="n">
-        <v>381.3303079568902</v>
+        <v>382.5407215528635</v>
       </c>
       <c r="S30" t="n">
-        <v>382.5407215528633</v>
+        <v>382.5407215528635</v>
       </c>
       <c r="T30" t="n">
-        <v>349.9340215028637</v>
+        <v>349.934021502864</v>
       </c>
       <c r="U30" t="n">
-        <v>289.6631123212226</v>
+        <v>289.6631123212228</v>
       </c>
       <c r="V30" t="n">
-        <v>222.0487479915087</v>
+        <v>222.0487479915089</v>
       </c>
       <c r="W30" t="n">
-        <v>136.1711354695272</v>
+        <v>136.1711354695273</v>
       </c>
       <c r="X30" t="n">
-        <v>96.28111601978995</v>
+        <v>96.28111601979003</v>
       </c>
       <c r="Y30" t="n">
-        <v>57.18955938812564</v>
+        <v>57.1895593881257</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.05759347569622</v>
+        <v>53.05759347569625</v>
       </c>
       <c r="C31" t="n">
-        <v>50.6676514777528</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="D31" t="n">
-        <v>66.4729458780846</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="E31" t="n">
-        <v>66.4729458780846</v>
+        <v>53.37851537396625</v>
       </c>
       <c r="F31" t="n">
-        <v>66.4729458780846</v>
+        <v>53.37851537396625</v>
       </c>
       <c r="G31" t="n">
-        <v>63.76208198187118</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="H31" t="n">
-        <v>63.76208198187118</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="I31" t="n">
-        <v>81.86797177382732</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="J31" t="n">
-        <v>139.0774315892086</v>
+        <v>142.50898535901</v>
       </c>
       <c r="K31" t="n">
-        <v>151.5176541910648</v>
+        <v>142.50898535901</v>
       </c>
       <c r="L31" t="n">
-        <v>223.2404712391416</v>
+        <v>142.50898535901</v>
       </c>
       <c r="M31" t="n">
-        <v>309.4550251577056</v>
+        <v>228.723539277574</v>
       </c>
       <c r="N31" t="n">
-        <v>496.7567930301941</v>
+        <v>481.3501709475041</v>
       </c>
       <c r="O31" t="n">
-        <v>563.9085817407109</v>
+        <v>548.501959658021</v>
       </c>
       <c r="P31" t="n">
-        <v>598.1460564182397</v>
+        <v>607.0574819971189</v>
       </c>
       <c r="Q31" t="n">
-        <v>634.7347267181709</v>
+        <v>634.7347267181713</v>
       </c>
       <c r="R31" t="n">
-        <v>634.7347267181709</v>
+        <v>634.7347267181713</v>
       </c>
       <c r="S31" t="n">
-        <v>580.9106328412954</v>
+        <v>580.9106328412958</v>
       </c>
       <c r="T31" t="n">
-        <v>517.9242861012682</v>
+        <v>517.9242861012685</v>
       </c>
       <c r="U31" t="n">
-        <v>395.6324434544075</v>
+        <v>395.6324434544077</v>
       </c>
       <c r="V31" t="n">
-        <v>306.7780588951138</v>
+        <v>306.7780588951139</v>
       </c>
       <c r="W31" t="n">
-        <v>184.4325371434197</v>
+        <v>184.4325371434198</v>
       </c>
       <c r="X31" t="n">
-        <v>122.6448102958733</v>
+        <v>122.6448102958734</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.32343300846939</v>
+        <v>68.32343300846946</v>
       </c>
     </row>
     <row r="32">
@@ -6677,55 +6677,55 @@
         <v>1355.019858134939</v>
       </c>
       <c r="C32" t="n">
-        <v>1150.964721442309</v>
+        <v>1150.964721442308</v>
       </c>
       <c r="D32" t="n">
-        <v>957.3947998247735</v>
+        <v>957.3947998247731</v>
       </c>
       <c r="E32" t="n">
-        <v>737.043764065128</v>
+        <v>737.0437640651276</v>
       </c>
       <c r="F32" t="n">
-        <v>492.272700300176</v>
+        <v>492.2727003001756</v>
       </c>
       <c r="G32" t="n">
         <v>240.3942739600225</v>
       </c>
       <c r="H32" t="n">
-        <v>70.89861697359227</v>
+        <v>70.8986169735923</v>
       </c>
       <c r="I32" t="n">
-        <v>50.6676514777528</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="J32" t="n">
-        <v>94.09557879918688</v>
+        <v>257.4163840488929</v>
       </c>
       <c r="K32" t="n">
-        <v>444.7801823065096</v>
+        <v>444.7801823065095</v>
       </c>
       <c r="L32" t="n">
-        <v>729.1906200085901</v>
+        <v>892.511425258296</v>
       </c>
       <c r="M32" t="n">
-        <v>1224.185131084418</v>
+        <v>1384.823941143002</v>
       </c>
       <c r="N32" t="n">
-        <v>1545.70848923272</v>
+        <v>1706.347299291304</v>
       </c>
       <c r="O32" t="n">
-        <v>1908.311169402234</v>
+        <v>2127.145142948637</v>
       </c>
       <c r="P32" t="n">
-        <v>2254.44387682303</v>
+        <v>2309.957045119727</v>
       </c>
       <c r="Q32" t="n">
-        <v>2477.869405590944</v>
+        <v>2533.38257388764</v>
       </c>
       <c r="R32" t="n">
         <v>2533.38257388764</v>
       </c>
       <c r="S32" t="n">
-        <v>2504.150429211984</v>
+        <v>2504.150429211983</v>
       </c>
       <c r="T32" t="n">
         <v>2447.889708454213</v>
@@ -6743,7 +6743,7 @@
         <v>1799.931434939135</v>
       </c>
       <c r="Y32" t="n">
-        <v>1575.975312314896</v>
+        <v>1575.975312314895</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>56.78388741125035</v>
+        <v>56.78388741125039</v>
       </c>
       <c r="C33" t="n">
-        <v>50.6676514777528</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="D33" t="n">
-        <v>50.6676514777528</v>
+        <v>69.3371573885597</v>
       </c>
       <c r="E33" t="n">
-        <v>50.6676514777528</v>
+        <v>69.3371573885597</v>
       </c>
       <c r="F33" t="n">
-        <v>50.6676514777528</v>
+        <v>69.3371573885597</v>
       </c>
       <c r="G33" t="n">
-        <v>50.6676514777528</v>
+        <v>69.3371573885597</v>
       </c>
       <c r="H33" t="n">
-        <v>50.6676514777528</v>
+        <v>69.3371573885597</v>
       </c>
       <c r="I33" t="n">
-        <v>50.6676514777528</v>
+        <v>69.3371573885597</v>
       </c>
       <c r="J33" t="n">
-        <v>50.6676514777528</v>
+        <v>69.3371573885597</v>
       </c>
       <c r="K33" t="n">
-        <v>50.6676514777528</v>
+        <v>69.3371573885597</v>
       </c>
       <c r="L33" t="n">
-        <v>50.6676514777528</v>
+        <v>69.3371573885597</v>
       </c>
       <c r="M33" t="n">
-        <v>50.6676514777528</v>
+        <v>69.3371573885597</v>
       </c>
       <c r="N33" t="n">
-        <v>50.6676514777528</v>
+        <v>130.9062595238915</v>
       </c>
       <c r="O33" t="n">
-        <v>367.1487030274291</v>
+        <v>130.9062595238915</v>
       </c>
       <c r="P33" t="n">
-        <v>367.1487030274291</v>
+        <v>382.540721552863</v>
       </c>
       <c r="Q33" t="n">
-        <v>382.5407215528628</v>
+        <v>382.540721552863</v>
       </c>
       <c r="R33" t="n">
-        <v>382.5407215528628</v>
+        <v>382.540721552863</v>
       </c>
       <c r="S33" t="n">
-        <v>382.5407215528628</v>
+        <v>382.540721552863</v>
       </c>
       <c r="T33" t="n">
-        <v>349.9340215028633</v>
+        <v>349.9340215028636</v>
       </c>
       <c r="U33" t="n">
-        <v>289.6631123212223</v>
+        <v>289.6631123212225</v>
       </c>
       <c r="V33" t="n">
-        <v>222.0487479915084</v>
+        <v>222.0487479915086</v>
       </c>
       <c r="W33" t="n">
-        <v>136.171135469527</v>
+        <v>136.1711354695271</v>
       </c>
       <c r="X33" t="n">
-        <v>96.28111601978978</v>
+        <v>96.28111601978986</v>
       </c>
       <c r="Y33" t="n">
-        <v>57.18955938812552</v>
+        <v>57.18955938812559</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.05759347569616</v>
+        <v>53.05759347569619</v>
       </c>
       <c r="C34" t="n">
-        <v>50.6676514777528</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="D34" t="n">
-        <v>66.47294587808466</v>
+        <v>50.66765147775281</v>
       </c>
       <c r="E34" t="n">
-        <v>66.47294587808466</v>
+        <v>68.48357879599162</v>
       </c>
       <c r="F34" t="n">
-        <v>85.09631993208424</v>
+        <v>68.48357879599162</v>
       </c>
       <c r="G34" t="n">
-        <v>82.38545603587089</v>
+        <v>65.77271489977824</v>
       </c>
       <c r="H34" t="n">
-        <v>87.75984585603064</v>
+        <v>65.77271489977824</v>
       </c>
       <c r="I34" t="n">
-        <v>105.8657356479868</v>
+        <v>65.77271489977824</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8657356479868</v>
+        <v>65.77271489977824</v>
       </c>
       <c r="K34" t="n">
-        <v>118.3059582498431</v>
+        <v>241.5337427513405</v>
       </c>
       <c r="L34" t="n">
-        <v>190.0287752979198</v>
+        <v>313.2565597994172</v>
       </c>
       <c r="M34" t="n">
-        <v>276.2433292164837</v>
+        <v>399.4711137179812</v>
       </c>
       <c r="N34" t="n">
-        <v>370.0246580804188</v>
+        <v>399.4711137179812</v>
       </c>
       <c r="O34" t="n">
-        <v>600.4972520406417</v>
+        <v>462.0760079878914</v>
       </c>
       <c r="P34" t="n">
-        <v>634.7347267181705</v>
+        <v>530.8689464725065</v>
       </c>
       <c r="Q34" t="n">
-        <v>634.7347267181705</v>
+        <v>634.7347267181707</v>
       </c>
       <c r="R34" t="n">
-        <v>634.7347267181705</v>
+        <v>634.7347267181707</v>
       </c>
       <c r="S34" t="n">
-        <v>580.9106328412951</v>
+        <v>580.9106328412953</v>
       </c>
       <c r="T34" t="n">
-        <v>517.9242861012679</v>
+        <v>517.9242861012681</v>
       </c>
       <c r="U34" t="n">
-        <v>395.6324434544072</v>
+        <v>395.6324434544074</v>
       </c>
       <c r="V34" t="n">
-        <v>306.7780588951135</v>
+        <v>306.7780588951136</v>
       </c>
       <c r="W34" t="n">
-        <v>184.4325371434194</v>
+        <v>184.4325371434196</v>
       </c>
       <c r="X34" t="n">
-        <v>122.6448102958731</v>
+        <v>122.6448102958732</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.32343300846928</v>
+        <v>68.32343300846935</v>
       </c>
     </row>
     <row r="35">
@@ -6914,43 +6914,43 @@
         <v>1150.631106402408</v>
       </c>
       <c r="C35" t="n">
-        <v>975.8081143854336</v>
+        <v>975.8081143854331</v>
       </c>
       <c r="D35" t="n">
-        <v>811.4703374435543</v>
+        <v>811.4703374435537</v>
       </c>
       <c r="E35" t="n">
-        <v>620.3514463595648</v>
+        <v>620.3514463595642</v>
       </c>
       <c r="F35" t="n">
-        <v>404.8125272702688</v>
+        <v>404.8125272702682</v>
       </c>
       <c r="G35" t="n">
         <v>182.1662456057715</v>
       </c>
       <c r="H35" t="n">
-        <v>41.90273329499719</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="I35" t="n">
-        <v>50.72478900913543</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="J35" t="n">
-        <v>112.0220715957189</v>
+        <v>277.3018908627478</v>
       </c>
       <c r="K35" t="n">
-        <v>299.3858698533355</v>
+        <v>656.6369193666808</v>
       </c>
       <c r="L35" t="n">
-        <v>299.3858698533355</v>
+        <v>656.6369193666808</v>
       </c>
       <c r="M35" t="n">
-        <v>817.9321943789257</v>
+        <v>988.3106251928023</v>
       </c>
       <c r="N35" t="n">
-        <v>1139.455552527228</v>
+        <v>1309.448849038086</v>
       </c>
       <c r="O35" t="n">
-        <v>1588.903821181171</v>
+        <v>1758.897117692029</v>
       </c>
       <c r="P35" t="n">
         <v>1758.897117692029</v>
@@ -6959,10 +6959,10 @@
         <v>2010.973071456553</v>
       </c>
       <c r="R35" t="n">
-        <v>2095.136664749859</v>
+        <v>2095.13666474986</v>
       </c>
       <c r="S35" t="n">
-        <v>2095.136664749859</v>
+        <v>2095.13666474986</v>
       </c>
       <c r="T35" t="n">
         <v>2068.108088667745</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>70.15555918707233</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="C36" t="n">
-        <v>92.81146134526186</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="D36" t="n">
-        <v>140.1313922526793</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="E36" t="n">
-        <v>140.1313922526793</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="F36" t="n">
-        <v>140.1313922526793</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="G36" t="n">
-        <v>140.1313922526793</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="H36" t="n">
-        <v>140.1313922526793</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="I36" t="n">
-        <v>140.1313922526793</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="J36" t="n">
-        <v>140.1313922526793</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="K36" t="n">
-        <v>140.1313922526793</v>
+        <v>145.6949708303416</v>
       </c>
       <c r="L36" t="n">
-        <v>140.1313922526793</v>
+        <v>145.6949708303416</v>
       </c>
       <c r="M36" t="n">
-        <v>140.1313922526793</v>
+        <v>145.6949708303416</v>
       </c>
       <c r="N36" t="n">
-        <v>140.1313922526793</v>
+        <v>145.6949708303416</v>
       </c>
       <c r="O36" t="n">
-        <v>140.1313922526793</v>
+        <v>145.6949708303416</v>
       </c>
       <c r="P36" t="n">
-        <v>191.8610274057982</v>
+        <v>145.6949708303416</v>
       </c>
       <c r="Q36" t="n">
-        <v>191.8610274057982</v>
+        <v>145.6949708303416</v>
       </c>
       <c r="R36" t="n">
-        <v>191.8610274057982</v>
+        <v>191.8610274057986</v>
       </c>
       <c r="S36" t="n">
-        <v>191.8610274057982</v>
+        <v>191.8610274057986</v>
       </c>
       <c r="T36" t="n">
-        <v>188.4864720314548</v>
+        <v>188.4864720314551</v>
       </c>
       <c r="U36" t="n">
-        <v>157.4477075254698</v>
+        <v>157.44770752547</v>
       </c>
       <c r="V36" t="n">
-        <v>119.065487871412</v>
+        <v>119.0654878714122</v>
       </c>
       <c r="W36" t="n">
-        <v>62.42002002508658</v>
+        <v>62.4200200250867</v>
       </c>
       <c r="X36" t="n">
-        <v>51.7621452510054</v>
+        <v>51.76214525100546</v>
       </c>
       <c r="Y36" t="n">
-        <v>41.90273329499719</v>
+        <v>41.9027332949972</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.90273329499719</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="C37" t="n">
-        <v>41.90273329499719</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="D37" t="n">
-        <v>41.90273329499719</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="E37" t="n">
-        <v>41.90273329499719</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="F37" t="n">
-        <v>41.90273329499719</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="G37" t="n">
-        <v>41.90273329499719</v>
+        <v>67.89624058692891</v>
       </c>
       <c r="H37" t="n">
-        <v>41.90273329499719</v>
+        <v>67.89624058692891</v>
       </c>
       <c r="I37" t="n">
-        <v>41.90273329499719</v>
+        <v>67.89624058692891</v>
       </c>
       <c r="J37" t="n">
-        <v>41.90273329499719</v>
+        <v>67.89624058692891</v>
       </c>
       <c r="K37" t="n">
-        <v>41.90273329499719</v>
+        <v>67.89624058692891</v>
       </c>
       <c r="L37" t="n">
-        <v>138.312827882206</v>
+        <v>67.89624058692891</v>
       </c>
       <c r="M37" t="n">
-        <v>138.312827882206</v>
+        <v>281.6445187058592</v>
       </c>
       <c r="N37" t="n">
-        <v>138.312827882206</v>
+        <v>281.6445187058592</v>
       </c>
       <c r="O37" t="n">
-        <v>220.4547953401292</v>
+        <v>372.8998379723799</v>
       </c>
       <c r="P37" t="n">
-        <v>307.6607426758377</v>
+        <v>372.8998379723799</v>
       </c>
       <c r="Q37" t="n">
-        <v>372.8998379723794</v>
+        <v>372.8998379723799</v>
       </c>
       <c r="R37" t="n">
-        <v>403.689014275106</v>
+        <v>403.6890142751064</v>
       </c>
       <c r="S37" t="n">
-        <v>379.0970650738867</v>
+        <v>379.097065073887</v>
       </c>
       <c r="T37" t="n">
-        <v>345.3428630095156</v>
+        <v>345.3428630095158</v>
       </c>
       <c r="U37" t="n">
-        <v>252.2831650383109</v>
+        <v>252.2831650383112</v>
       </c>
       <c r="V37" t="n">
-        <v>192.6609251546733</v>
+        <v>192.6609251546735</v>
       </c>
       <c r="W37" t="n">
-        <v>99.54754807863526</v>
+        <v>99.54754807863539</v>
       </c>
       <c r="X37" t="n">
-        <v>66.99196590674499</v>
+        <v>66.99196590674507</v>
       </c>
       <c r="Y37" t="n">
-        <v>41.90273329499719</v>
+        <v>41.9027332949972</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>1150.631106402408</v>
       </c>
       <c r="C38" t="n">
-        <v>975.8081143854331</v>
+        <v>975.8081143854329</v>
       </c>
       <c r="D38" t="n">
-        <v>811.4703374435538</v>
+        <v>811.4703374435535</v>
       </c>
       <c r="E38" t="n">
-        <v>620.3514463595643</v>
+        <v>620.3514463595639</v>
       </c>
       <c r="F38" t="n">
-        <v>404.8125272702683</v>
+        <v>404.8125272702678</v>
       </c>
       <c r="G38" t="n">
         <v>182.1662456057715</v>
@@ -7169,31 +7169,31 @@
         <v>41.9027332949972</v>
       </c>
       <c r="I38" t="n">
-        <v>50.72478900913545</v>
+        <v>50.72478900913536</v>
       </c>
       <c r="J38" t="n">
-        <v>286.1239465768861</v>
+        <v>286.1239465768859</v>
       </c>
       <c r="K38" t="n">
-        <v>665.4589750808193</v>
+        <v>473.4877448345025</v>
       </c>
       <c r="L38" t="n">
-        <v>711.8166565280726</v>
+        <v>949.8694127828994</v>
       </c>
       <c r="M38" t="n">
-        <v>1230.362981053663</v>
+        <v>1468.41573730849</v>
       </c>
       <c r="N38" t="n">
-        <v>1643.746841422163</v>
+        <v>1468.41573730849</v>
       </c>
       <c r="O38" t="n">
-        <v>1643.746841422163</v>
+        <v>1799.601528501289</v>
       </c>
       <c r="P38" t="n">
-        <v>1826.558743593253</v>
+        <v>1843.060710985337</v>
       </c>
       <c r="Q38" t="n">
-        <v>2078.634697357777</v>
+        <v>2095.13666474986</v>
       </c>
       <c r="R38" t="n">
         <v>2095.13666474986</v>
@@ -7202,13 +7202,13 @@
         <v>2095.13666474986</v>
       </c>
       <c r="T38" t="n">
-        <v>2068.108088667745</v>
+        <v>2068.108088667746</v>
       </c>
       <c r="U38" t="n">
         <v>2010.001562449059</v>
       </c>
       <c r="V38" t="n">
-        <v>1874.018847357764</v>
+        <v>1874.018847357765</v>
       </c>
       <c r="W38" t="n">
         <v>1715.81704592502</v>
@@ -7254,46 +7254,46 @@
         <v>41.9027332949972</v>
       </c>
       <c r="K39" t="n">
-        <v>73.29285719669527</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="L39" t="n">
-        <v>191.8610274057982</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="M39" t="n">
-        <v>191.8610274057982</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="N39" t="n">
-        <v>191.8610274057982</v>
+        <v>71.41473077440638</v>
       </c>
       <c r="O39" t="n">
-        <v>191.8610274057982</v>
+        <v>191.8610274057988</v>
       </c>
       <c r="P39" t="n">
-        <v>191.8610274057982</v>
+        <v>191.8610274057988</v>
       </c>
       <c r="Q39" t="n">
-        <v>191.8610274057982</v>
+        <v>191.8610274057988</v>
       </c>
       <c r="R39" t="n">
-        <v>191.8610274057982</v>
+        <v>191.8610274057988</v>
       </c>
       <c r="S39" t="n">
-        <v>191.8610274057982</v>
+        <v>191.8610274057988</v>
       </c>
       <c r="T39" t="n">
-        <v>188.4864720314548</v>
+        <v>188.4864720314553</v>
       </c>
       <c r="U39" t="n">
-        <v>157.4477075254698</v>
+        <v>157.4477075254702</v>
       </c>
       <c r="V39" t="n">
-        <v>119.065487871412</v>
+        <v>119.0654878714122</v>
       </c>
       <c r="W39" t="n">
-        <v>62.42002002508659</v>
+        <v>62.42002002508676</v>
       </c>
       <c r="X39" t="n">
-        <v>51.76214525100541</v>
+        <v>51.7621452510055</v>
       </c>
       <c r="Y39" t="n">
         <v>41.9027332949972</v>
@@ -7306,73 +7306,73 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>55.59110896553675</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="C40" t="n">
-        <v>55.59110896553675</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="D40" t="n">
-        <v>55.59110896553675</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="E40" t="n">
-        <v>102.0574612803861</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="F40" t="n">
-        <v>102.0574612803861</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="G40" t="n">
-        <v>102.0574612803861</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="H40" t="n">
-        <v>102.0574612803861</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="I40" t="n">
-        <v>102.0574612803861</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="J40" t="n">
-        <v>102.0574612803861</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="K40" t="n">
-        <v>114.4976838822423</v>
+        <v>136.4108043147156</v>
       </c>
       <c r="L40" t="n">
-        <v>114.4976838822423</v>
+        <v>136.4108043147156</v>
       </c>
       <c r="M40" t="n">
-        <v>114.4976838822423</v>
+        <v>136.4108043147156</v>
       </c>
       <c r="N40" t="n">
-        <v>372.8998379723794</v>
+        <v>338.4499189785651</v>
       </c>
       <c r="O40" t="n">
-        <v>372.8998379723794</v>
+        <v>338.4499189785651</v>
       </c>
       <c r="P40" t="n">
-        <v>372.8998379723794</v>
+        <v>338.4499189785651</v>
       </c>
       <c r="Q40" t="n">
-        <v>372.8998379723794</v>
+        <v>403.6890142751067</v>
       </c>
       <c r="R40" t="n">
-        <v>403.689014275106</v>
+        <v>403.6890142751067</v>
       </c>
       <c r="S40" t="n">
-        <v>379.0970650738867</v>
+        <v>379.0970650738872</v>
       </c>
       <c r="T40" t="n">
-        <v>345.3428630095156</v>
+        <v>345.342863009516</v>
       </c>
       <c r="U40" t="n">
-        <v>252.2831650383109</v>
+        <v>252.2831650383113</v>
       </c>
       <c r="V40" t="n">
-        <v>192.6609251546733</v>
+        <v>192.6609251546735</v>
       </c>
       <c r="W40" t="n">
-        <v>99.54754807863527</v>
+        <v>99.54754807863544</v>
       </c>
       <c r="X40" t="n">
-        <v>66.99196590674501</v>
+        <v>66.99196590674509</v>
       </c>
       <c r="Y40" t="n">
         <v>41.9027332949972</v>
@@ -7388,16 +7388,16 @@
         <v>1150.631106402408</v>
       </c>
       <c r="C41" t="n">
-        <v>975.8081143854334</v>
+        <v>975.8081143854333</v>
       </c>
       <c r="D41" t="n">
         <v>811.4703374435542</v>
       </c>
       <c r="E41" t="n">
-        <v>620.3514463595648</v>
+        <v>620.3514463595645</v>
       </c>
       <c r="F41" t="n">
-        <v>404.8125272702688</v>
+        <v>404.8125272702686</v>
       </c>
       <c r="G41" t="n">
         <v>182.1662456057715</v>
@@ -7406,31 +7406,31 @@
         <v>41.9027332949972</v>
       </c>
       <c r="I41" t="n">
-        <v>50.72478900913539</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="J41" t="n">
-        <v>50.72478900913539</v>
+        <v>139.9626723170458</v>
       </c>
       <c r="K41" t="n">
-        <v>419.7206734683272</v>
+        <v>519.2977008209789</v>
       </c>
       <c r="L41" t="n">
-        <v>896.1023414167242</v>
+        <v>519.2977008209789</v>
       </c>
       <c r="M41" t="n">
-        <v>1005.214225100501</v>
+        <v>1037.844025346569</v>
       </c>
       <c r="N41" t="n">
-        <v>1326.737583248803</v>
+        <v>1359.367383494871</v>
       </c>
       <c r="O41" t="n">
-        <v>1384.113985274624</v>
+        <v>1799.601528501289</v>
       </c>
       <c r="P41" t="n">
-        <v>1758.89711769203</v>
+        <v>1843.060710985337</v>
       </c>
       <c r="Q41" t="n">
-        <v>2010.973071456554</v>
+        <v>2095.13666474986</v>
       </c>
       <c r="R41" t="n">
         <v>2095.13666474986</v>
@@ -7442,7 +7442,7 @@
         <v>2068.108088667746</v>
       </c>
       <c r="U41" t="n">
-        <v>2010.00156244906</v>
+        <v>2010.001562449059</v>
       </c>
       <c r="V41" t="n">
         <v>1874.018847357765</v>
@@ -7482,25 +7482,25 @@
         <v>41.9027332949972</v>
       </c>
       <c r="H42" t="n">
-        <v>41.9027332949972</v>
+        <v>86.38621648850527</v>
       </c>
       <c r="I42" t="n">
-        <v>41.9027332949972</v>
+        <v>191.8610274057986</v>
       </c>
       <c r="J42" t="n">
-        <v>71.41473077440618</v>
+        <v>191.8610274057986</v>
       </c>
       <c r="K42" t="n">
-        <v>71.41473077440618</v>
+        <v>191.8610274057986</v>
       </c>
       <c r="L42" t="n">
-        <v>71.41473077440618</v>
+        <v>191.8610274057986</v>
       </c>
       <c r="M42" t="n">
-        <v>71.41473077440618</v>
+        <v>191.8610274057986</v>
       </c>
       <c r="N42" t="n">
-        <v>71.41473077440618</v>
+        <v>191.8610274057986</v>
       </c>
       <c r="O42" t="n">
         <v>191.8610274057986</v>
@@ -7561,31 +7561,31 @@
         <v>41.9027332949972</v>
       </c>
       <c r="H43" t="n">
-        <v>41.9027332949972</v>
+        <v>75.92754811176738</v>
       </c>
       <c r="I43" t="n">
-        <v>41.9027332949972</v>
+        <v>75.92754811176738</v>
       </c>
       <c r="J43" t="n">
-        <v>41.9027332949972</v>
+        <v>75.92754811176738</v>
       </c>
       <c r="K43" t="n">
-        <v>54.34295589685343</v>
+        <v>75.92754811176738</v>
       </c>
       <c r="L43" t="n">
-        <v>126.0657729449301</v>
+        <v>75.92754811176738</v>
       </c>
       <c r="M43" t="n">
-        <v>212.2803268634941</v>
+        <v>75.92754811176738</v>
       </c>
       <c r="N43" t="n">
-        <v>301.5861532837182</v>
+        <v>180.3010835152501</v>
       </c>
       <c r="O43" t="n">
-        <v>368.737941994235</v>
+        <v>251.2439716428563</v>
       </c>
       <c r="P43" t="n">
-        <v>368.737941994235</v>
+        <v>338.4499189785648</v>
       </c>
       <c r="Q43" t="n">
         <v>403.6890142751064</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1150.631106402408</v>
+        <v>1150.631106402409</v>
       </c>
       <c r="C44" t="n">
-        <v>975.8081143854337</v>
+        <v>975.8081143854342</v>
       </c>
       <c r="D44" t="n">
-        <v>811.4703374435543</v>
+        <v>811.4703374435549</v>
       </c>
       <c r="E44" t="n">
-        <v>620.3514463595648</v>
+        <v>620.3514463595651</v>
       </c>
       <c r="F44" t="n">
-        <v>404.8125272702687</v>
+        <v>404.8125272702686</v>
       </c>
       <c r="G44" t="n">
         <v>182.1662456057715</v>
@@ -7643,31 +7643,31 @@
         <v>41.9027332949972</v>
       </c>
       <c r="I44" t="n">
-        <v>50.72478900913539</v>
+        <v>41.9027332949972</v>
       </c>
       <c r="J44" t="n">
-        <v>286.1239465768859</v>
+        <v>277.3018908627478</v>
       </c>
       <c r="K44" t="n">
-        <v>665.4589750808191</v>
+        <v>656.6369193666808</v>
       </c>
       <c r="L44" t="n">
-        <v>803.6771587482702</v>
+        <v>1133.018587315078</v>
       </c>
       <c r="M44" t="n">
-        <v>1322.223483273861</v>
+        <v>1651.564911840668</v>
       </c>
       <c r="N44" t="n">
-        <v>1643.746841422163</v>
+        <v>1651.564911840668</v>
       </c>
       <c r="O44" t="n">
-        <v>1643.746841422163</v>
+        <v>2006.670234109879</v>
       </c>
       <c r="P44" t="n">
-        <v>1826.558743593253</v>
+        <v>2010.973071456554</v>
       </c>
       <c r="Q44" t="n">
-        <v>2078.634697357777</v>
+        <v>2010.973071456554</v>
       </c>
       <c r="R44" t="n">
         <v>2095.13666474986</v>
@@ -7679,16 +7679,16 @@
         <v>2068.108088667746</v>
       </c>
       <c r="U44" t="n">
-        <v>2010.001562449059</v>
+        <v>2010.00156244906</v>
       </c>
       <c r="V44" t="n">
-        <v>1874.018847357765</v>
+        <v>1874.018847357766</v>
       </c>
       <c r="W44" t="n">
-        <v>1715.817045925021</v>
+        <v>1715.817045925022</v>
       </c>
       <c r="X44" t="n">
-        <v>1537.078393855292</v>
+        <v>1537.078393855293</v>
       </c>
       <c r="Y44" t="n">
         <v>1342.354415906709</v>
@@ -7701,55 +7701,55 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>41.9027332949972</v>
+        <v>46.52369546459948</v>
       </c>
       <c r="C45" t="n">
-        <v>41.9027332949972</v>
+        <v>46.52369546459948</v>
       </c>
       <c r="D45" t="n">
-        <v>41.9027332949972</v>
+        <v>46.52369546459948</v>
       </c>
       <c r="E45" t="n">
-        <v>41.9027332949972</v>
+        <v>46.52369546459948</v>
       </c>
       <c r="F45" t="n">
-        <v>41.9027332949972</v>
+        <v>46.52369546459948</v>
       </c>
       <c r="G45" t="n">
-        <v>41.9027332949972</v>
+        <v>46.52369546459948</v>
       </c>
       <c r="H45" t="n">
-        <v>41.9027332949972</v>
+        <v>46.52369546459948</v>
       </c>
       <c r="I45" t="n">
-        <v>41.9027332949972</v>
+        <v>46.52369546459948</v>
       </c>
       <c r="J45" t="n">
-        <v>41.9027332949972</v>
+        <v>46.52369546459948</v>
       </c>
       <c r="K45" t="n">
-        <v>41.9027332949972</v>
+        <v>46.52369546459948</v>
       </c>
       <c r="L45" t="n">
-        <v>76.38453405718303</v>
+        <v>46.52369546459948</v>
       </c>
       <c r="M45" t="n">
-        <v>76.38453405718303</v>
+        <v>46.52369546459948</v>
       </c>
       <c r="N45" t="n">
-        <v>76.38453405718303</v>
+        <v>46.52369546459948</v>
       </c>
       <c r="O45" t="n">
-        <v>76.38453405718303</v>
+        <v>46.52369546459948</v>
       </c>
       <c r="P45" t="n">
-        <v>76.38453405718303</v>
+        <v>46.52369546459948</v>
       </c>
       <c r="Q45" t="n">
-        <v>76.38453405718303</v>
+        <v>46.52369546459948</v>
       </c>
       <c r="R45" t="n">
-        <v>191.8610274057986</v>
+        <v>162.000188813215</v>
       </c>
       <c r="S45" t="n">
         <v>191.8610274057986</v>
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.9027332949972</v>
+        <v>55.5911089655367</v>
       </c>
       <c r="C46" t="n">
-        <v>68.21077613942336</v>
+        <v>55.5911089655367</v>
       </c>
       <c r="D46" t="n">
-        <v>112.6664955363657</v>
+        <v>55.5911089655367</v>
       </c>
       <c r="E46" t="n">
-        <v>112.6664955363657</v>
+        <v>55.5911089655367</v>
       </c>
       <c r="F46" t="n">
-        <v>112.6664955363657</v>
+        <v>55.5911089655367</v>
       </c>
       <c r="G46" t="n">
-        <v>112.6664955363657</v>
+        <v>55.5911089655367</v>
       </c>
       <c r="H46" t="n">
-        <v>112.6664955363657</v>
+        <v>73.10677394777859</v>
       </c>
       <c r="I46" t="n">
-        <v>112.6664955363657</v>
+        <v>73.10677394777859</v>
       </c>
       <c r="J46" t="n">
-        <v>198.5263803483575</v>
+        <v>73.10677394777859</v>
       </c>
       <c r="K46" t="n">
-        <v>278.196220331057</v>
+        <v>73.10677394777859</v>
       </c>
       <c r="L46" t="n">
-        <v>278.196220331057</v>
+        <v>73.10677394777859</v>
       </c>
       <c r="M46" t="n">
-        <v>278.196220331057</v>
+        <v>73.10677394777859</v>
       </c>
       <c r="N46" t="n">
-        <v>278.196220331057</v>
+        <v>177.4803093512613</v>
       </c>
       <c r="O46" t="n">
-        <v>369.4515395975777</v>
+        <v>177.4803093512613</v>
       </c>
       <c r="P46" t="n">
         <v>403.6890142751064</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.8889893089566</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>147.8548671976309</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>147.0843927263264</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>130.0697325517947</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>30.43039793670904</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>160.0957483487177</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R11" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8854,7 +8854,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>98.56463934727398</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -8866,7 +8866,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>131.9938865249829</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>147.8548671976309</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>132.4701295536352</v>
       </c>
       <c r="N14" t="n">
-        <v>239.6312098362399</v>
+        <v>25.209629029843</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>39.44994937016264</v>
       </c>
       <c r="P14" t="n">
-        <v>150.012169456837</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>49.12730531661902</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9094,16 +9094,16 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>88.48252004326645</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>135.5402542435449</v>
       </c>
       <c r="P16" t="n">
-        <v>105.8235180915232</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>467.4940748325458</v>
       </c>
       <c r="N26" t="n">
-        <v>396.0578079664269</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O26" t="n">
         <v>396.0321885132552</v>
@@ -9954,10 +9954,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>52.57043844807293</v>
+        <v>89.06968960704248</v>
       </c>
       <c r="L27" t="n">
-        <v>74.14450508809449</v>
+        <v>33.29123000645557</v>
       </c>
       <c r="M27" t="n">
         <v>67.45955797656295</v>
@@ -9969,10 +9969,10 @@
         <v>72.24740769184248</v>
       </c>
       <c r="P27" t="n">
-        <v>56.51393062334555</v>
+        <v>247.2798680688005</v>
       </c>
       <c r="Q27" t="n">
-        <v>218.4803792452831</v>
+        <v>100.6520544727515</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10033,22 +10033,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K28" t="n">
-        <v>111.0135169984386</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>168.9736896032166</v>
       </c>
       <c r="M28" t="n">
-        <v>185.6500473458235</v>
+        <v>98.56463934727398</v>
       </c>
       <c r="N28" t="n">
-        <v>88.48252004326645</v>
+        <v>178.6904255182403</v>
       </c>
       <c r="O28" t="n">
-        <v>169.5633330205178</v>
+        <v>101.7332434139351</v>
       </c>
       <c r="P28" t="n">
-        <v>140.4068258466027</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>67.95667671286152</v>
@@ -10185,10 +10185,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>10.53077703452832</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>97.14738262933706</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>89.06968960704248</v>
@@ -10197,19 +10197,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>157.8305338670635</v>
+        <v>67.45955797656295</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>298.3889451637714</v>
       </c>
       <c r="O30" t="n">
         <v>72.24740769184248</v>
       </c>
       <c r="P30" t="n">
-        <v>77.02505511384621</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>100.6520544727515</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10267,13 +10267,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K31" t="n">
-        <v>111.0135169984386</v>
+        <v>98.44763558242224</v>
       </c>
       <c r="L31" t="n">
-        <v>168.9736896032166</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>185.6500473458235</v>
@@ -10285,10 +10285,10 @@
         <v>169.5633330205178</v>
       </c>
       <c r="P31" t="n">
-        <v>140.4068258466027</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10425,25 +10425,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>97.14738262933706</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>89.06968960704248</v>
       </c>
       <c r="L33" t="n">
         <v>74.14450508809449</v>
       </c>
       <c r="M33" t="n">
-        <v>67.45955797656295</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>226.954727186762</v>
+        <v>1.061312331949139</v>
       </c>
       <c r="P33" t="n">
-        <v>77.02505511384621</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10516,10 +10516,10 @@
         <v>185.6500473458235</v>
       </c>
       <c r="N34" t="n">
-        <v>178.6904255182403</v>
+        <v>88.48252004326645</v>
       </c>
       <c r="O34" t="n">
-        <v>169.5633330205178</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>140.4068258466027</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K35" t="n">
         <v>337.1112290740114</v>
@@ -10592,16 +10592,16 @@
         <v>147.0843927263264</v>
       </c>
       <c r="M35" t="n">
-        <v>462.3439621589621</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N35" t="n">
-        <v>454.8408013884635</v>
+        <v>260.5414432578222</v>
       </c>
       <c r="O35" t="n">
         <v>396.0321885132552</v>
       </c>
       <c r="P35" t="n">
-        <v>127.8122363907168</v>
+        <v>150.012169456837</v>
       </c>
       <c r="Q35" t="n">
         <v>220.8075902863009</v>
@@ -10662,31 +10662,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>97.14738262933706</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>89.06968960704248</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>33.87010942895773</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>55.05467963002936</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>77.02505511384621</v>
       </c>
       <c r="Q36" t="n">
-        <v>100.6520544727515</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>47.34253660377365</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,16 +10741,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>98.44763558242224</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>96.52639965566436</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>185.6500473458235</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -10759,10 +10759,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>98.34564637988377</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10826,25 +10826,25 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M38" t="n">
-        <v>462.3439621589624</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N38" t="n">
-        <v>353.7188538873332</v>
+        <v>130.0697325517947</v>
       </c>
       <c r="O38" t="n">
-        <v>131.7924556215313</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P38" t="n">
-        <v>334.6706564983419</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>220.8075902863009</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>97.14738262933706</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>89.06968960704248</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>74.14450508809449</v>
       </c>
       <c r="M39" t="n">
-        <v>67.45955797656295</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>55.05467963002936</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>72.24740769184248</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>100.6520544727515</v>
+        <v>4.491344334836093</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10981,22 +10981,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>111.0135169984386</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>96.52639965566436</v>
       </c>
       <c r="M40" t="n">
-        <v>98.56463934727398</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>178.6904255182403</v>
+        <v>98.65210026299675</v>
       </c>
       <c r="O40" t="n">
         <v>101.7332434139351</v>
       </c>
       <c r="P40" t="n">
-        <v>105.8235180915232</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11057,25 +11057,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>131.9938865249829</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K41" t="n">
         <v>337.1112290740114</v>
       </c>
       <c r="L41" t="n">
-        <v>434.3676631324684</v>
+        <v>147.0843927263264</v>
       </c>
       <c r="M41" t="n">
-        <v>48.7738198945039</v>
+        <v>462.3439621589624</v>
       </c>
       <c r="N41" t="n">
         <v>454.8408013884635</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>386.7249929096932</v>
       </c>
       <c r="P41" t="n">
-        <v>334.6706564983419</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>220.8075902863009</v>
@@ -11142,25 +11142,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>74.14450508809449</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>55.05467963002936</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>72.24740769184248</v>
       </c>
       <c r="P42" t="n">
-        <v>77.02505511384621</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>100.6520544727515</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,22 +11215,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K43" t="n">
-        <v>111.0135169984386</v>
+        <v>98.44763558242224</v>
       </c>
       <c r="L43" t="n">
-        <v>168.9736896032166</v>
+        <v>96.52639965566436</v>
       </c>
       <c r="M43" t="n">
-        <v>185.6500473458235</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>178.6904255182403</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>169.5633330205178</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -11300,25 +11300,25 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L44" t="n">
-        <v>129.885415910222</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M44" t="n">
         <v>462.3439621589624</v>
       </c>
       <c r="N44" t="n">
-        <v>454.8408013884635</v>
+        <v>130.0697325517947</v>
       </c>
       <c r="O44" t="n">
-        <v>135.9543719398944</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P44" t="n">
-        <v>334.6706564983419</v>
+        <v>154.3584698070133</v>
       </c>
       <c r="Q44" t="n">
-        <v>220.8075902863009</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>10.53077703452832</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11382,19 +11382,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>67.45955797656295</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>55.05467963002936</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>72.24740769184248</v>
       </c>
       <c r="P45" t="n">
-        <v>77.02505511384621</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>100.6520544727515</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -11458,16 +11458,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>96.52639965566436</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>98.56463934727398</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>101.7332434139351</v>
       </c>
       <c r="P46" t="n">
         <v>140.4068258466027</v>
@@ -23261,16 +23261,16 @@
         <v>160.9191958247657</v>
       </c>
       <c r="D11" t="n">
-        <v>150.5388329004214</v>
+        <v>40.97735561597631</v>
       </c>
       <c r="E11" t="n">
-        <v>140.5230054426856</v>
+        <v>67.49065861666537</v>
       </c>
       <c r="F11" t="n">
-        <v>201.2279636263639</v>
+        <v>164.6988331679395</v>
       </c>
       <c r="G11" t="n">
-        <v>98.70277529136783</v>
+        <v>208.264252575813</v>
       </c>
       <c r="H11" t="n">
         <v>126.7053109156275</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>12.90584438389723</v>
+        <v>122.4673216683424</v>
       </c>
       <c r="W11" t="n">
-        <v>144.4642171463776</v>
+        <v>34.9027398619325</v>
       </c>
       <c r="X11" t="n">
-        <v>164.7956992769924</v>
+        <v>164.7956992769925</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.0596946126137</v>
+        <v>180.6211718970589</v>
       </c>
     </row>
     <row r="12">
@@ -23495,13 +23495,13 @@
         <v>177.6505101372181</v>
       </c>
       <c r="C14" t="n">
-        <v>160.9191958247657</v>
+        <v>51.35771854032055</v>
       </c>
       <c r="D14" t="n">
-        <v>150.5388329004214</v>
+        <v>150.5388329004215</v>
       </c>
       <c r="E14" t="n">
-        <v>140.5230054426859</v>
+        <v>177.0521359011105</v>
       </c>
       <c r="F14" t="n">
         <v>201.2279636263639</v>
@@ -23510,7 +23510,7 @@
         <v>208.264252575813</v>
       </c>
       <c r="H14" t="n">
-        <v>17.14383363118229</v>
+        <v>126.7053109156275</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>14.6027240492545</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>122.4673216683424</v>
+        <v>71.33546716066185</v>
       </c>
       <c r="W14" t="n">
-        <v>34.90273986193247</v>
+        <v>34.9027398619325</v>
       </c>
       <c r="X14" t="n">
-        <v>164.7956992769924</v>
+        <v>55.23422199254728</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.0596946126137</v>
+        <v>180.6211718970589</v>
       </c>
     </row>
     <row r="15">
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-6.715789672031322e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-7.901217753801946e-14</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>635406.7986712785</v>
+        <v>635406.7986712782</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>635406.7986712785</v>
+        <v>635406.7986712783</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>823847.6063786118</v>
+        <v>823847.6063786119</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>823847.6063786118</v>
+        <v>823847.6063786119</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>710636.8305362731</v>
+        <v>710636.8305362726</v>
       </c>
       <c r="C2" t="n">
-        <v>710636.830536273</v>
+        <v>710636.8305362732</v>
       </c>
       <c r="D2" t="n">
         <v>710636.830536273</v>
       </c>
       <c r="E2" t="n">
-        <v>611222.2916363317</v>
+        <v>611222.2916363318</v>
       </c>
       <c r="F2" t="n">
-        <v>611222.2916363315</v>
+        <v>611222.2916363318</v>
       </c>
       <c r="G2" t="n">
+        <v>712179.4825380692</v>
+      </c>
+      <c r="H2" t="n">
         <v>712179.4825380694</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>712179.4825380691</v>
+      </c>
+      <c r="J2" t="n">
         <v>712179.4825380692</v>
       </c>
-      <c r="I2" t="n">
-        <v>712179.482538069</v>
-      </c>
-      <c r="J2" t="n">
-        <v>712179.4825380695</v>
-      </c>
       <c r="K2" t="n">
-        <v>712179.4825380692</v>
+        <v>712179.4825380694</v>
       </c>
       <c r="L2" t="n">
-        <v>712179.4825380698</v>
+        <v>712179.4825380694</v>
       </c>
       <c r="M2" t="n">
-        <v>712179.4825380702</v>
+        <v>712179.4825380696</v>
       </c>
       <c r="N2" t="n">
-        <v>712179.4825380699</v>
+        <v>712179.4825380696</v>
       </c>
       <c r="O2" t="n">
-        <v>712179.4825380695</v>
+        <v>712179.4825380696</v>
       </c>
       <c r="P2" t="n">
-        <v>712179.4825380694</v>
+        <v>712179.4825380697</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>101364.2487325019</v>
+        <v>101364.248732502</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167657.1439280419</v>
+        <v>167657.1439280418</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>101364.248732502</v>
       </c>
       <c r="M3" t="n">
-        <v>23151.85858311959</v>
+        <v>23151.85858311957</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>30612.1595500887</v>
+        <v>30612.15955008872</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26445,13 +26445,13 @@
         <v>423151.8413876116</v>
       </c>
       <c r="L4" t="n">
-        <v>423151.8413876117</v>
+        <v>423151.8413876116</v>
       </c>
       <c r="M4" t="n">
         <v>422190.0895336542</v>
       </c>
       <c r="N4" t="n">
-        <v>422190.0895336542</v>
+        <v>422190.0895336541</v>
       </c>
       <c r="O4" t="n">
         <v>422190.0895336542</v>
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26829.93695763127</v>
+        <v>26829.93695763126</v>
       </c>
       <c r="F5" t="n">
-        <v>26829.93695763127</v>
+        <v>26829.93695763126</v>
       </c>
       <c r="G5" t="n">
         <v>37481.92574099715</v>
@@ -26497,7 +26497,7 @@
         <v>55221.16596187472</v>
       </c>
       <c r="L5" t="n">
-        <v>55221.16596187472</v>
+        <v>55221.16596187473</v>
       </c>
       <c r="M5" t="n">
         <v>50992.77014201081</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>213457.1099005814</v>
+        <v>213452.702323433</v>
       </c>
       <c r="C6" t="n">
-        <v>213457.1099005813</v>
+        <v>213452.7023234336</v>
       </c>
       <c r="D6" t="n">
-        <v>213457.1099005813</v>
+        <v>213452.7023234333</v>
       </c>
       <c r="E6" t="n">
-        <v>-71967.28154710203</v>
+        <v>-72255.73066396396</v>
       </c>
       <c r="F6" t="n">
-        <v>230440.149810288</v>
+        <v>230151.7006934263</v>
       </c>
       <c r="G6" t="n">
-        <v>153839.3589292928</v>
+        <v>153839.3589292926</v>
       </c>
       <c r="H6" t="n">
-        <v>255203.6076617946</v>
+        <v>255203.6076617947</v>
       </c>
       <c r="I6" t="n">
-        <v>255203.6076617943</v>
+        <v>255203.6076617945</v>
       </c>
       <c r="J6" t="n">
-        <v>66149.33126054113</v>
+        <v>66149.33126054102</v>
       </c>
       <c r="K6" t="n">
-        <v>233806.4751885831</v>
+        <v>233806.475188583</v>
       </c>
       <c r="L6" t="n">
-        <v>132442.2264560814</v>
+        <v>132442.226456081</v>
       </c>
       <c r="M6" t="n">
-        <v>215844.7642792856</v>
+        <v>215844.764279285</v>
       </c>
       <c r="N6" t="n">
-        <v>238996.6228624049</v>
+        <v>238996.6228624047</v>
       </c>
       <c r="O6" t="n">
-        <v>208384.4633123158</v>
+        <v>208384.4633123159</v>
       </c>
       <c r="P6" t="n">
-        <v>238996.6228624044</v>
+        <v>238996.6228624047</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="F2" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="G2" t="n">
         <v>332.7712107698044</v>
@@ -26707,19 +26707,19 @@
         <v>332.7712107698044</v>
       </c>
       <c r="J2" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="K2" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="L2" t="n">
         <v>164.9705103532384</v>
       </c>
       <c r="M2" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="N2" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="O2" t="n">
         <v>193.9103335821378</v>
@@ -26811,16 +26811,16 @@
         <v>109.5614772844451</v>
       </c>
       <c r="J4" t="n">
-        <v>633.3456434719104</v>
+        <v>633.3456434719103</v>
       </c>
       <c r="K4" t="n">
-        <v>633.34564347191</v>
+        <v>633.3456434719101</v>
       </c>
       <c r="L4" t="n">
-        <v>633.34564347191</v>
+        <v>633.3456434719101</v>
       </c>
       <c r="M4" t="n">
-        <v>523.7841661874648</v>
+        <v>523.784166187465</v>
       </c>
       <c r="N4" t="n">
         <v>523.7841661874651</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>126.7053109156274</v>
+        <v>126.7053109156275</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>38.26519943761093</v>
+        <v>38.26519943761087</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>126.7053109156275</v>
       </c>
       <c r="M2" t="n">
-        <v>28.93982322889948</v>
+        <v>28.93982322889946</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>38.26519943761087</v>
+        <v>38.2651994376109</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>523.7841661874653</v>
+        <v>523.7841661874652</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.7053109156274</v>
+        <v>126.7053109156275</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>38.26519943761093</v>
+        <v>38.26519943761087</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="C11" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="D11" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="E11" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="F11" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="G11" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="H11" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="I11" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="J11" t="n">
-        <v>95.96307702438614</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="L11" t="n">
-        <v>206.065899854177</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="N11" t="n">
-        <v>206.065899854177</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="P11" t="n">
-        <v>206.065899854177</v>
+        <v>154.6522480293005</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>108.8966029828383</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="S11" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="T11" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="U11" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="V11" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="W11" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="X11" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="Y11" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
     </row>
     <row r="12">
@@ -28166,10 +28166,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>206.065899854177</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>206.065899854177</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
         <v>146.1124235746456</v>
@@ -28187,7 +28187,7 @@
         <v>107.751615098652</v>
       </c>
       <c r="I12" t="n">
-        <v>92.95400390944984</v>
+        <v>87.37012053436682</v>
       </c>
       <c r="J12" t="n">
         <v>97.14738262933706</v>
@@ -28196,7 +28196,7 @@
         <v>89.06968960704248</v>
       </c>
       <c r="L12" t="n">
-        <v>74.14450508809449</v>
+        <v>164.2772350852248</v>
       </c>
       <c r="M12" t="n">
         <v>67.45955797656295</v>
@@ -28220,16 +28220,16 @@
         <v>163.747870357306</v>
       </c>
       <c r="T12" t="n">
-        <v>206.065899854177</v>
+        <v>197.2511434027379</v>
       </c>
       <c r="U12" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="V12" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="W12" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="X12" t="n">
         <v>204.4616296084783</v>
@@ -28263,7 +28263,7 @@
         <v>167.6542656104896</v>
       </c>
       <c r="H13" t="n">
-        <v>159.5418337672185</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="I13" t="n">
         <v>146.6817327856059</v>
@@ -28272,49 +28272,49 @@
         <v>107.1831772063885</v>
       </c>
       <c r="K13" t="n">
-        <v>206.065899854177</v>
+        <v>98.44763558242224</v>
       </c>
       <c r="L13" t="n">
         <v>96.52639965566436</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>120.8607875384227</v>
       </c>
       <c r="N13" t="n">
-        <v>88.48252004326645</v>
+        <v>198.0439973277116</v>
       </c>
       <c r="O13" t="n">
-        <v>172.4966707047326</v>
+        <v>101.7332434139351</v>
       </c>
       <c r="P13" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="Q13" t="n">
-        <v>60.05558081216351</v>
+        <v>128.012257525025</v>
       </c>
       <c r="R13" t="n">
         <v>162.8101554985757</v>
       </c>
       <c r="S13" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="T13" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="U13" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="V13" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="W13" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="X13" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="Y13" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="C14" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="D14" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="E14" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="F14" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="G14" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="H14" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="I14" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="J14" t="n">
-        <v>206.065899854177</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>206.065899854177</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>147.0843927263264</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="M14" t="n">
-        <v>192.2867410164874</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="O14" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="Q14" t="n">
-        <v>110.9684430320986</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="R14" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="S14" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="T14" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="U14" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="V14" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="W14" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="X14" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="Y14" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
     </row>
     <row r="15">
@@ -28409,19 +28409,19 @@
         <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>146.1124235746456</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="E15" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F15" t="n">
-        <v>206.065899854177</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
         <v>135.7425175181424</v>
       </c>
       <c r="H15" t="n">
-        <v>107.751615098652</v>
+        <v>137.9308688162509</v>
       </c>
       <c r="I15" t="n">
         <v>87.37012053436682</v>
@@ -28448,7 +28448,7 @@
         <v>77.02505511384621</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.225116699254</v>
+        <v>100.6520544727515</v>
       </c>
       <c r="R15" t="n">
         <v>124.6099476115523</v>
@@ -28460,13 +28460,13 @@
         <v>197.2511434027379</v>
       </c>
       <c r="U15" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="V15" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="W15" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
@@ -28491,25 +28491,25 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E16" t="n">
-        <v>146.9746241731992</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="F16" t="n">
-        <v>151.5047939417524</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>167.6542656104896</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="H16" t="n">
-        <v>159.5418337672185</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="I16" t="n">
-        <v>206.065899854177</v>
+        <v>146.6817327856059</v>
       </c>
       <c r="J16" t="n">
-        <v>181.7629635152014</v>
+        <v>72.20148623075629</v>
       </c>
       <c r="K16" t="n">
-        <v>98.44763558242224</v>
+        <v>155.9819777107938</v>
       </c>
       <c r="L16" t="n">
         <v>96.52639965566436</v>
@@ -28518,40 +28518,40 @@
         <v>98.56463934727398</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>88.48252004326645</v>
       </c>
       <c r="O16" t="n">
-        <v>206.065899854177</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>105.8235180915232</v>
       </c>
       <c r="Q16" t="n">
-        <v>60.05558081216351</v>
+        <v>128.012257525025</v>
       </c>
       <c r="R16" t="n">
-        <v>162.8101554985757</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="S16" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="T16" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="U16" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="V16" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="W16" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="X16" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
       <c r="Y16" t="n">
-        <v>206.065899854177</v>
+        <v>206.0658998541769</v>
       </c>
     </row>
     <row r="17">
@@ -28582,25 +28582,25 @@
         <v>332.7712107698044</v>
       </c>
       <c r="I17" t="n">
-        <v>208.7985008924703</v>
+        <v>294.5606434785646</v>
       </c>
       <c r="J17" t="n">
         <v>131.9938865249829</v>
       </c>
       <c r="K17" t="n">
-        <v>147.8548671976309</v>
+        <v>171.6542018959818</v>
       </c>
       <c r="L17" t="n">
-        <v>256.6458700107715</v>
+        <v>147.0843927263264</v>
       </c>
       <c r="M17" t="n">
-        <v>132.4701295536352</v>
+        <v>242.0316068380803</v>
       </c>
       <c r="N17" t="n">
         <v>130.0697325517947</v>
       </c>
       <c r="O17" t="n">
-        <v>135.9543719398944</v>
+        <v>245.5158492243396</v>
       </c>
       <c r="P17" t="n">
         <v>150.012169456837</v>
@@ -28609,10 +28609,10 @@
         <v>160.0957483487177</v>
       </c>
       <c r="R17" t="n">
-        <v>286.8031569351853</v>
+        <v>177.2416796507401</v>
       </c>
       <c r="S17" t="n">
-        <v>303.4718108665829</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="T17" t="n">
         <v>220.6686239034314</v>
@@ -28819,7 +28819,7 @@
         <v>332.7712107698044</v>
       </c>
       <c r="I20" t="n">
-        <v>184.9991661941195</v>
+        <v>294.5606434785647</v>
       </c>
       <c r="J20" t="n">
         <v>131.9938865249829</v>
@@ -28831,28 +28831,28 @@
         <v>147.0843927263264</v>
       </c>
       <c r="M20" t="n">
-        <v>132.4701295536352</v>
+        <v>242.0316068380804</v>
       </c>
       <c r="N20" t="n">
-        <v>130.0697325517947</v>
+        <v>149.6310780028606</v>
       </c>
       <c r="O20" t="n">
         <v>135.9543719398944</v>
       </c>
       <c r="P20" t="n">
-        <v>259.5736467412821</v>
+        <v>150.012169456837</v>
       </c>
       <c r="Q20" t="n">
-        <v>269.6572256331629</v>
+        <v>269.6572256331628</v>
       </c>
       <c r="R20" t="n">
         <v>177.2416796507401</v>
       </c>
       <c r="S20" t="n">
-        <v>303.4718108665829</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="T20" t="n">
-        <v>240.2299693544973</v>
+        <v>220.6686239034314</v>
       </c>
       <c r="U20" t="n">
         <v>332.7712107698044</v>
@@ -29056,10 +29056,10 @@
         <v>332.7712107698044</v>
       </c>
       <c r="I23" t="n">
-        <v>294.5606434785647</v>
+        <v>184.9991661941195</v>
       </c>
       <c r="J23" t="n">
-        <v>131.9938865249829</v>
+        <v>237.128637454501</v>
       </c>
       <c r="K23" t="n">
         <v>147.8548671976309</v>
@@ -29068,7 +29068,7 @@
         <v>147.0843927263264</v>
       </c>
       <c r="M23" t="n">
-        <v>132.4701295536352</v>
+        <v>242.0316068380804</v>
       </c>
       <c r="N23" t="n">
         <v>130.0697325517947</v>
@@ -29080,19 +29080,19 @@
         <v>259.5736467412821</v>
       </c>
       <c r="Q23" t="n">
-        <v>160.0957483487177</v>
+        <v>269.6572256331628</v>
       </c>
       <c r="R23" t="n">
-        <v>286.8031569351853</v>
+        <v>177.2416796507401</v>
       </c>
       <c r="S23" t="n">
         <v>193.9103335821378</v>
       </c>
       <c r="T23" t="n">
-        <v>244.4679586017823</v>
+        <v>220.6686239034314</v>
       </c>
       <c r="U23" t="n">
-        <v>332.7712107698044</v>
+        <v>251.4357945386371</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="C26" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="D26" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="E26" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="F26" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="G26" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="H26" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="I26" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="J26" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>106.1875169312015</v>
       </c>
       <c r="L26" t="n">
-        <v>164.9705103532384</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="N26" t="n">
-        <v>164.9705103532384</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="R26" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="S26" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="T26" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="U26" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="V26" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="W26" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="X26" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="Y26" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
     </row>
     <row r="27">
@@ -29351,10 +29351,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="C27" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="D27" t="n">
         <v>146.1124235746456</v>
@@ -29378,10 +29378,10 @@
         <v>97.14738262933706</v>
       </c>
       <c r="K27" t="n">
-        <v>164.9705103532384</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>40.85327508163892</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -29393,34 +29393,34 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>20.51112449050067</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>164.9705103532384</v>
+        <v>77.26741100777869</v>
       </c>
       <c r="S27" t="n">
-        <v>164.9705103532384</v>
+        <v>163.747870357306</v>
       </c>
       <c r="T27" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="U27" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="V27" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="W27" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="X27" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="Y27" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
     </row>
     <row r="28">
@@ -29430,13 +29430,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="C28" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="D28" t="n">
-        <v>149.0055665145194</v>
+        <v>151.7438128743309</v>
       </c>
       <c r="E28" t="n">
         <v>146.9746241731992</v>
@@ -29445,7 +29445,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="H28" t="n">
         <v>159.5418337672185</v>
@@ -29457,22 +29457,22 @@
         <v>72.20148623075629</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="M28" t="n">
-        <v>153.2225019498819</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>164.9705103532384</v>
+        <v>136.6711698587937</v>
       </c>
       <c r="Q28" t="n">
         <v>60.05558081216351</v>
@@ -29481,25 +29481,25 @@
         <v>162.8101554985757</v>
       </c>
       <c r="S28" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="T28" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="U28" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="V28" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="W28" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="X28" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="Y28" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="C29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="D29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="E29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="F29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="G29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="H29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="I29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="K29" t="n">
-        <v>164.9705103532384</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="N29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="O29" t="n">
-        <v>164.9705103532384</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>164.9705103532384</v>
+        <v>106.1875169312006</v>
       </c>
       <c r="Q29" t="n">
-        <v>106.1875169311994</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="R29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="S29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="T29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="U29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="V29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="W29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="X29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="Y29" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
     </row>
     <row r="30">
@@ -29588,13 +29588,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="C30" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="D30" t="n">
-        <v>164.9705103532384</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
         <v>156.0334337071738</v>
@@ -29603,61 +29603,61 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>164.9705103532384</v>
+        <v>135.7425175181424</v>
       </c>
       <c r="H30" t="n">
-        <v>164.9705103532384</v>
+        <v>107.751615098652</v>
       </c>
       <c r="I30" t="n">
-        <v>76.83934349983849</v>
+        <v>87.37012053436682</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>74.14450508809449</v>
+        <v>98.2124351386438</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>129.0629563030269</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>77.02505511384621</v>
       </c>
       <c r="Q30" t="n">
-        <v>164.9705103532384</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>77.26741100777869</v>
       </c>
       <c r="S30" t="n">
-        <v>164.9705103532384</v>
+        <v>163.747870357306</v>
       </c>
       <c r="T30" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="U30" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="V30" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="W30" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="X30" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="Y30" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="C31" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="D31" t="n">
-        <v>164.9705103532384</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E31" t="n">
-        <v>146.9746241731992</v>
+        <v>149.7128705330107</v>
       </c>
       <c r="F31" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="H31" t="n">
         <v>159.5418337672185</v>
       </c>
       <c r="I31" t="n">
-        <v>164.9705103532384</v>
+        <v>146.6817327856059</v>
       </c>
       <c r="J31" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>96.52639965566436</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>98.98579944673179</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.9705103532384</v>
+        <v>88.01239366171137</v>
       </c>
       <c r="R31" t="n">
         <v>162.8101554985757</v>
       </c>
       <c r="S31" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="T31" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="U31" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="V31" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="W31" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="X31" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
       <c r="Y31" t="n">
-        <v>164.9705103532384</v>
+        <v>164.9705103532383</v>
       </c>
     </row>
     <row r="32">
@@ -29770,31 +29770,31 @@
         <v>164.9705103532384</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>164.9705103532384</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>164.9705103532384</v>
       </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
       <c r="M32" t="n">
+        <v>162.2614243016003</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>164.9705103532384</v>
       </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>106.1875169311994</v>
-      </c>
       <c r="P32" t="n">
-        <v>164.9705103532384</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>164.9705103532384</v>
       </c>
       <c r="R32" t="n">
-        <v>164.9705103532384</v>
+        <v>108.8966029828383</v>
       </c>
       <c r="S32" t="n">
         <v>164.9705103532384</v>
@@ -29831,7 +29831,7 @@
         <v>164.9705103532384</v>
       </c>
       <c r="D33" t="n">
-        <v>146.1124235746456</v>
+        <v>164.9705103532384</v>
       </c>
       <c r="E33" t="n">
         <v>156.0334337071738</v>
@@ -29849,28 +29849,28 @@
         <v>87.37012053436682</v>
       </c>
       <c r="J33" t="n">
-        <v>97.14738262933706</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>89.06968960704248</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>67.45955797656295</v>
       </c>
       <c r="N33" t="n">
-        <v>55.05467963002936</v>
+        <v>117.2456918879403</v>
       </c>
       <c r="O33" t="n">
-        <v>164.9705103532384</v>
+        <v>71.18609535989334</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>116.1995479327855</v>
+        <v>100.6520544727515</v>
       </c>
       <c r="R33" t="n">
         <v>77.26741100777869</v>
@@ -29910,28 +29910,28 @@
         <v>164.9705103532384</v>
       </c>
       <c r="D34" t="n">
+        <v>149.0055665145194</v>
+      </c>
+      <c r="E34" t="n">
         <v>164.9705103532384</v>
       </c>
-      <c r="E34" t="n">
-        <v>146.9746241731992</v>
-      </c>
       <c r="F34" t="n">
-        <v>164.9705103532384</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
         <v>164.9705103532384</v>
       </c>
       <c r="H34" t="n">
-        <v>164.9705103532384</v>
+        <v>159.5418337672185</v>
       </c>
       <c r="I34" t="n">
-        <v>164.9705103532384</v>
+        <v>146.6817327856059</v>
       </c>
       <c r="J34" t="n">
         <v>72.20148623075629</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>164.9705103532384</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29940,16 +29940,16 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>4.520709539102015</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>164.9705103532384</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>34.90450889604682</v>
       </c>
       <c r="Q34" t="n">
-        <v>60.05558081216351</v>
+        <v>164.9705103532384</v>
       </c>
       <c r="R34" t="n">
         <v>162.8101554985757</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="C35" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="D35" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="E35" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="F35" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="G35" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="H35" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="I35" t="n">
-        <v>193.9103335821379</v>
+        <v>184.9991661941195</v>
       </c>
       <c r="J35" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>193.9103335821379</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="O35" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="P35" t="n">
-        <v>193.9103335821379</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="R35" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="S35" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="T35" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="U35" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="V35" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="W35" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="X35" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="Y35" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
     </row>
     <row r="36">
@@ -30062,13 +30062,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.9103335821379</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>193.9103335821379</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>193.9103335821379</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
         <v>156.0334337071738</v>
@@ -30086,52 +30086,52 @@
         <v>87.37012053436682</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>97.14738262933706</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="L36" t="n">
-        <v>40.27439565913676</v>
+        <v>74.14450508809449</v>
       </c>
       <c r="M36" t="n">
         <v>67.45955797656295</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>55.05467963002936</v>
       </c>
       <c r="O36" t="n">
         <v>72.24740769184248</v>
       </c>
       <c r="P36" t="n">
-        <v>129.2772118341684</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>100.6520544727515</v>
       </c>
       <c r="R36" t="n">
-        <v>77.26741100777869</v>
+        <v>171.2423279908018</v>
       </c>
       <c r="S36" t="n">
         <v>163.747870357306</v>
       </c>
       <c r="T36" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="U36" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="V36" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="W36" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="X36" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="Y36" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
     </row>
     <row r="37">
@@ -30156,7 +30156,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>167.6542656104896</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="H37" t="n">
         <v>159.5418337672185</v>
@@ -30165,52 +30165,52 @@
         <v>146.6817327856059</v>
       </c>
       <c r="J37" t="n">
-        <v>107.1831772063885</v>
+        <v>72.20148623075629</v>
       </c>
       <c r="K37" t="n">
-        <v>98.44763558242224</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>193.9103335821379</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>98.56463934727398</v>
+        <v>128.8219436367336</v>
       </c>
       <c r="N37" t="n">
         <v>88.48252004326645</v>
       </c>
       <c r="O37" t="n">
-        <v>184.7049277148677</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="P37" t="n">
-        <v>193.9103335821379</v>
+        <v>7.477871711639439</v>
       </c>
       <c r="Q37" t="n">
-        <v>193.9103335821379</v>
+        <v>60.05558081216351</v>
       </c>
       <c r="R37" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="S37" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="T37" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="U37" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="V37" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="W37" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="X37" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="Y37" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
     </row>
     <row r="38">
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="C38" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="D38" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="E38" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="F38" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="G38" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="H38" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="I38" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="J38" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="K38" t="n">
-        <v>193.9103335821379</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="M38" t="n">
-        <v>193.9103335821379</v>
+        <v>188.7602209085545</v>
       </c>
       <c r="N38" t="n">
-        <v>193.9103335821379</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>4.16191631836311</v>
+        <v>74.4532856415874</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="Q38" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="R38" t="n">
-        <v>193.9103335821379</v>
+        <v>108.8966029828383</v>
       </c>
       <c r="S38" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="T38" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="U38" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="V38" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="W38" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="X38" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="Y38" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
     </row>
     <row r="39">
@@ -30323,52 +30323,52 @@
         <v>76.83934349983849</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>97.14738262933706</v>
       </c>
       <c r="K39" t="n">
-        <v>120.7768854673435</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>193.9103335821379</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>67.45955797656295</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>84.86477809407903</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="P39" t="n">
         <v>77.02505511384621</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>96.16071013791539</v>
       </c>
       <c r="R39" t="n">
-        <v>124.6099476115523</v>
+        <v>77.26741100777869</v>
       </c>
       <c r="S39" t="n">
         <v>163.747870357306</v>
       </c>
       <c r="T39" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="U39" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="V39" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="W39" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="X39" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="Y39" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
     </row>
     <row r="40">
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>193.9103335821379</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
         <v>167.3365529312023</v>
@@ -30387,7 +30387,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
-        <v>193.9103335821379</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F40" t="n">
         <v>146.1590214098045</v>
@@ -30405,49 +30405,49 @@
         <v>107.1831772063885</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>98.56463934727398</v>
       </c>
       <c r="N40" t="n">
-        <v>170.8043713837505</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>105.8235180915232</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.012257525025</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="R40" t="n">
-        <v>193.9103335821379</v>
+        <v>162.8101554985757</v>
       </c>
       <c r="S40" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="T40" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="U40" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="V40" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="W40" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="X40" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="Y40" t="n">
-        <v>193.9103335821379</v>
+        <v>193.9103335821378</v>
       </c>
     </row>
     <row r="41">
@@ -30478,16 +30478,16 @@
         <v>193.9103335821378</v>
       </c>
       <c r="I41" t="n">
+        <v>184.9991661941195</v>
+      </c>
+      <c r="J41" t="n">
+        <v>55.18385020264088</v>
+      </c>
+      <c r="K41" t="n">
         <v>193.9103335821378</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>183.4667537389649</v>
-      </c>
       <c r="L41" t="n">
-        <v>193.9103335821378</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>193.9103335821378</v>
@@ -30505,7 +30505,7 @@
         <v>193.9103335821378</v>
       </c>
       <c r="R41" t="n">
-        <v>193.9103335821378</v>
+        <v>108.8966029828383</v>
       </c>
       <c r="S41" t="n">
         <v>193.9103335821378</v>
@@ -30554,37 +30554,37 @@
         <v>135.7425175181424</v>
       </c>
       <c r="H42" t="n">
-        <v>107.751615098652</v>
+        <v>152.6844264052258</v>
       </c>
       <c r="I42" t="n">
-        <v>87.37012053436682</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="J42" t="n">
-        <v>126.9574810933865</v>
+        <v>97.14738262933706</v>
       </c>
       <c r="K42" t="n">
         <v>89.06968960704248</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>74.14450508809449</v>
       </c>
       <c r="M42" t="n">
         <v>67.45955797656295</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>55.05467963002936</v>
       </c>
       <c r="O42" t="n">
-        <v>193.9103335821378</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>77.02505511384621</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>124.6099476115523</v>
+        <v>77.26741100777869</v>
       </c>
       <c r="S42" t="n">
         <v>163.747870357306</v>
@@ -30633,13 +30633,13 @@
         <v>167.6542656104896</v>
       </c>
       <c r="H43" t="n">
-        <v>159.5418337672185</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="I43" t="n">
         <v>146.6817327856059</v>
       </c>
       <c r="J43" t="n">
-        <v>107.1831772063885</v>
+        <v>72.20148623075629</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30648,19 +30648,19 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>98.56463934727398</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>173.3927263711132</v>
       </c>
       <c r="P43" t="n">
-        <v>105.8235180915232</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="Q43" t="n">
-        <v>163.3163709400467</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="R43" t="n">
         <v>162.8101554985757</v>
@@ -30715,7 +30715,7 @@
         <v>193.9103335821378</v>
       </c>
       <c r="I44" t="n">
-        <v>193.9103335821378</v>
+        <v>184.9991661941195</v>
       </c>
       <c r="J44" t="n">
         <v>193.9103335821378</v>
@@ -30724,7 +30724,7 @@
         <v>193.9103335821378</v>
       </c>
       <c r="L44" t="n">
-        <v>156.8133037529238</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="M44" t="n">
         <v>193.9103335821378</v>
@@ -30733,13 +30733,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>98.61442814301414</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>193.9103335821378</v>
+        <v>160.0957483487177</v>
       </c>
       <c r="R44" t="n">
         <v>193.9103335821378</v>
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.3721256103448</v>
+        <v>170.0397641654986</v>
       </c>
       <c r="C45" t="n">
         <v>171.025583927401</v>
@@ -30794,7 +30794,7 @@
         <v>107.751615098652</v>
       </c>
       <c r="I45" t="n">
-        <v>76.83934349983849</v>
+        <v>87.37012053436682</v>
       </c>
       <c r="J45" t="n">
         <v>97.14738262933706</v>
@@ -30803,28 +30803,28 @@
         <v>89.06968960704248</v>
       </c>
       <c r="L45" t="n">
-        <v>108.9746068680802</v>
+        <v>74.14450508809449</v>
       </c>
       <c r="M45" t="n">
-        <v>67.45955797656295</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>55.05467963002936</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>72.24740769184248</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>77.02505511384621</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>100.6520544727515</v>
       </c>
       <c r="R45" t="n">
         <v>193.9103335821378</v>
       </c>
       <c r="S45" t="n">
-        <v>163.747870357306</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="T45" t="n">
         <v>193.9103335821378</v>
@@ -30852,13 +30852,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>180.0836914906838</v>
+        <v>193.9103335821378</v>
       </c>
       <c r="C46" t="n">
-        <v>193.9103335821378</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
-        <v>193.9103335821378</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
         <v>146.9746241731992</v>
@@ -30870,31 +30870,31 @@
         <v>167.6542656104896</v>
       </c>
       <c r="H46" t="n">
-        <v>159.5418337672185</v>
+        <v>177.2344246583719</v>
       </c>
       <c r="I46" t="n">
         <v>146.6817327856059</v>
       </c>
       <c r="J46" t="n">
+        <v>107.1831772063885</v>
+      </c>
+      <c r="K46" t="n">
+        <v>98.44763558242224</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
         <v>193.9103335821378</v>
       </c>
-      <c r="K46" t="n">
-        <v>178.9222214235329</v>
-      </c>
-      <c r="L46" t="n">
-        <v>96.52639965566436</v>
-      </c>
-      <c r="M46" t="n">
-        <v>98.56463934727398</v>
-      </c>
-      <c r="N46" t="n">
-        <v>88.48252004326645</v>
-      </c>
       <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
         <v>193.9103335821378</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>60.05558081216351</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>21.06673366005749</v>
+        <v>21.06673366005747</v>
       </c>
       <c r="J11" t="n">
-        <v>65.85817980835979</v>
+        <v>74.07201332919405</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>58.211032656546</v>
       </c>
       <c r="L11" t="n">
-        <v>58.98150712785053</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>73.59577030054176</v>
+        <v>73.59577030054173</v>
       </c>
       <c r="N11" t="n">
-        <v>75.99616730238223</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>70.11152791428253</v>
+        <v>100.5419258509915</v>
       </c>
       <c r="P11" t="n">
-        <v>56.05373039733999</v>
+        <v>4.640078572463523</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>60.71184193758319</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>28.82422020343685</v>
       </c>
       <c r="S11" t="n">
-        <v>12.15556627203916</v>
+        <v>12.15556627203913</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35462,10 +35462,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>40.69377424383214</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>35.04031592677597</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>5.583883375083023</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>90.13272999713031</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35516,7 +35516,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>8.8147564514391</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -35559,7 +35559,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>46.52406608695846</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -35568,19 +35568,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>107.6182642717547</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>22.29614819114876</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>109.5614772844451</v>
       </c>
       <c r="O13" t="n">
-        <v>70.76342729079747</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>100.2423817626537</v>
@@ -35641,37 +35641,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>21.06673366005749</v>
+        <v>21.06673366005747</v>
       </c>
       <c r="J14" t="n">
-        <v>74.07201332919408</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>58.21103265654602</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>58.98150712785051</v>
       </c>
       <c r="M14" t="n">
-        <v>59.81661146285222</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
+        <v>101.2057963322252</v>
+      </c>
+      <c r="O14" t="n">
         <v>109.5614772844451</v>
       </c>
-      <c r="O14" t="n">
-        <v>70.11152791428253</v>
-      </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>56.05373039733996</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>45.97015150545926</v>
       </c>
       <c r="R14" t="n">
-        <v>28.82422020343688</v>
+        <v>28.82422020343685</v>
       </c>
       <c r="S14" t="n">
-        <v>12.15556627203916</v>
+        <v>12.15556627203913</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35705,19 +35705,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>59.95347627953137</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>62.55966777062767</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>30.17925371759894</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.57306222650255</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35787,25 +35787,25 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>59.09127568097776</v>
       </c>
       <c r="F16" t="n">
-        <v>5.345772531947873</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>38.4116342436873</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>46.52406608695846</v>
       </c>
       <c r="I16" t="n">
-        <v>59.38416706857107</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5614772844451</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>57.53434212837158</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -35817,7 +35817,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>104.3326564402418</v>
+        <v>33.80701082960973</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35826,7 +35826,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>43.25574435560127</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35878,25 +35878,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>23.79933469835087</v>
+        <v>109.5614772844451</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>23.79933469835083</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
         <v>109.5614772844451</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>109.5614772844451</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35905,10 +35905,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>109.5614772844451</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.5614772844451</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>109.5614772844451</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36127,16 +36127,16 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>109.5614772844451</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>19.56134545106582</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>109.5614772844451</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>109.5614772844451</v>
@@ -36145,10 +36145,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.5614772844451</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>19.56134545106582</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>81.33541623116724</v>
@@ -36352,19 +36352,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>105.1347509295181</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
         <v>109.5614772844451</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -36376,19 +36376,19 @@
         <v>109.5614772844451</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>109.5614772844451</v>
       </c>
       <c r="R23" t="n">
-        <v>109.5614772844451</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>23.79933469835084</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>81.33541623116724</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36595,16 +36595,16 @@
         <v>208.8371036072122</v>
       </c>
       <c r="K26" t="n">
-        <v>189.2563618763804</v>
+        <v>295.4438788075819</v>
       </c>
       <c r="L26" t="n">
-        <v>452.2537807593803</v>
+        <v>287.283270406142</v>
       </c>
       <c r="M26" t="n">
         <v>499.994455632149</v>
       </c>
       <c r="N26" t="n">
-        <v>430.9585857678705</v>
+        <v>324.7710688366687</v>
       </c>
       <c r="O26" t="n">
         <v>425.0483269265991</v>
@@ -36613,10 +36613,10 @@
         <v>184.658487041505</v>
       </c>
       <c r="Q26" t="n">
-        <v>60.71184193758319</v>
+        <v>225.6823522908215</v>
       </c>
       <c r="R26" t="n">
-        <v>56.07390737040001</v>
+        <v>56.07390737039998</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>128.4712591942688</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,16 +36689,16 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>335.2253233081926</v>
       </c>
       <c r="Q27" t="n">
-        <v>117.8283247725316</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>87.70309934545966</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>1.222639995932375</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -36732,7 +36732,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>2.738246359811562</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>12.56588141601639</v>
+        <v>66.52287477081609</v>
       </c>
       <c r="L28" t="n">
-        <v>72.44728994755224</v>
+        <v>237.4178003007906</v>
       </c>
       <c r="M28" t="n">
-        <v>240.3079099484314</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>255.1784158282122</v>
       </c>
       <c r="O28" t="n">
-        <v>67.83008960658265</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>199.5538181083179</v>
+        <v>30.84765176727045</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>43.86659325397383</v>
+        <v>208.8371036072122</v>
       </c>
       <c r="K29" t="n">
-        <v>354.2268722296188</v>
+        <v>189.2563618763804</v>
       </c>
       <c r="L29" t="n">
         <v>287.283270406142</v>
       </c>
       <c r="M29" t="n">
-        <v>335.0239452789106</v>
+        <v>499.994455632149</v>
       </c>
       <c r="N29" t="n">
-        <v>489.7415791899072</v>
+        <v>489.7415791899071</v>
       </c>
       <c r="O29" t="n">
-        <v>425.0483269265991</v>
+        <v>260.0778165733607</v>
       </c>
       <c r="P29" t="n">
-        <v>349.6289973947434</v>
+        <v>290.8460039727056</v>
       </c>
       <c r="Q29" t="n">
-        <v>166.8993588687825</v>
+        <v>225.6823522908215</v>
       </c>
       <c r="R29" t="n">
-        <v>56.07390737040001</v>
+        <v>56.07390737039998</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36890,7 +36890,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>18.85808677859279</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -36899,28 +36899,28 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>29.22799283509595</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>57.21889525458637</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>67.82312772390127</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>24.06793005054931</v>
       </c>
       <c r="M30" t="n">
-        <v>90.3709758905005</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>74.00827667299752</v>
+        <v>243.334265533742</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,13 +36929,13 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>64.31845588048688</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>1.222639995932375</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -36969,10 +36969,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>15.96494383871899</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>2.738246359811562</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -36984,31 +36984,31 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>18.28877756763246</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>57.7873331468498</v>
+        <v>92.76902412248204</v>
       </c>
       <c r="K31" t="n">
-        <v>12.56588141601639</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>72.44728994755224</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>87.0854079985495</v>
       </c>
       <c r="N31" t="n">
-        <v>189.1937049217056</v>
+        <v>255.1784158282122</v>
       </c>
       <c r="O31" t="n">
         <v>67.83008960658265</v>
       </c>
       <c r="P31" t="n">
-        <v>34.58330775507953</v>
+        <v>59.14699226171511</v>
       </c>
       <c r="Q31" t="n">
-        <v>36.95825282821332</v>
+        <v>27.95681284954786</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>43.86659325397383</v>
+        <v>208.8371036072122</v>
       </c>
       <c r="K32" t="n">
-        <v>354.2268722296188</v>
+        <v>189.2563618763804</v>
       </c>
       <c r="L32" t="n">
-        <v>287.283270406142</v>
+        <v>452.2537807593803</v>
       </c>
       <c r="M32" t="n">
-        <v>499.994455632149</v>
+        <v>497.2853695805109</v>
       </c>
       <c r="N32" t="n">
         <v>324.7710688366687</v>
       </c>
       <c r="O32" t="n">
-        <v>366.2653335045601</v>
+        <v>425.0483269265991</v>
       </c>
       <c r="P32" t="n">
-        <v>349.6289973947434</v>
+        <v>184.658487041505</v>
       </c>
       <c r="Q32" t="n">
         <v>225.6823522908216</v>
       </c>
       <c r="R32" t="n">
-        <v>56.07390737040006</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37127,7 +37127,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>18.85808677859282</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -37157,16 +37157,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>62.1910122579109</v>
       </c>
       <c r="O33" t="n">
-        <v>319.6778298481579</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>254.1762242716884</v>
       </c>
       <c r="Q33" t="n">
-        <v>15.54749346003407</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37206,28 +37206,28 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>15.96494383871905</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>17.99588618003921</v>
       </c>
       <c r="F34" t="n">
-        <v>18.81148894343391</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>5.428676586019941</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>18.28877756763251</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>12.56588141601639</v>
+        <v>177.5363917692548</v>
       </c>
       <c r="L34" t="n">
         <v>72.44728994755224</v>
@@ -37236,16 +37236,16 @@
         <v>87.0854079985495</v>
       </c>
       <c r="N34" t="n">
-        <v>94.72861501407583</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>232.8005999598211</v>
+        <v>63.23726693930325</v>
       </c>
       <c r="P34" t="n">
-        <v>34.58330775507953</v>
+        <v>69.48781665112635</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>104.9149295410749</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>8.911167388018427</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>61.916447057155</v>
+        <v>237.7769268361117</v>
       </c>
       <c r="K35" t="n">
-        <v>189.2563618763804</v>
+        <v>383.1666954585182</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>523.7841661874648</v>
+        <v>335.0239452789106</v>
       </c>
       <c r="N35" t="n">
-        <v>324.7710688366687</v>
+        <v>324.3820442881653</v>
       </c>
       <c r="O35" t="n">
         <v>453.9881501554986</v>
       </c>
       <c r="P35" t="n">
-        <v>171.7104005160178</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>254.6221755197211</v>
+        <v>254.622175519721</v>
       </c>
       <c r="R35" t="n">
-        <v>85.01373059929955</v>
+        <v>85.01373059929949</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37358,13 +37358,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>28.53820797179307</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>22.88474965473691</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>47.79791000749233</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>104.8406439750954</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,13 +37400,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>52.2521567203222</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>46.63238037924946</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37452,7 +37452,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>26.2560679716482</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -37467,25 +37467,25 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>97.38393392647353</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>215.9073516352831</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>82.97168430093254</v>
+        <v>92.17709016820271</v>
       </c>
       <c r="P37" t="n">
-        <v>88.08681549061468</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.89807605711286</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>31.10017808356223</v>
+        <v>31.10017808356218</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>8.911167388018427</v>
+        <v>8.911167388018342</v>
       </c>
       <c r="J38" t="n">
-        <v>237.7769268361117</v>
+        <v>237.7769268361116</v>
       </c>
       <c r="K38" t="n">
-        <v>383.1666954585183</v>
+        <v>189.2563618763804</v>
       </c>
       <c r="L38" t="n">
-        <v>46.82594085581147</v>
+        <v>481.1936039882798</v>
       </c>
       <c r="M38" t="n">
         <v>523.7841661874651</v>
       </c>
       <c r="N38" t="n">
-        <v>417.5594549176764</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>334.5311022149481</v>
       </c>
       <c r="P38" t="n">
-        <v>184.658487041505</v>
+        <v>43.89816412530084</v>
       </c>
       <c r="Q38" t="n">
-        <v>254.6221755197211</v>
+        <v>254.622175519721</v>
       </c>
       <c r="R38" t="n">
-        <v>16.66865393139781</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,19 +37622,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>31.70719586030107</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>119.7658284940434</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>29.81009846404967</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>121.6629258902953</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37674,7 +37674,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>13.82664209145409</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -37683,7 +37683,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>46.93570940893872</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>12.56588141601639</v>
+        <v>95.46269799971557</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>261.0122768587244</v>
+        <v>204.0799138018681</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -37719,10 +37719,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.89807605711277</v>
       </c>
       <c r="R40" t="n">
-        <v>31.10017808356223</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>8.91116738801837</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>99.05044345661472</v>
       </c>
       <c r="K41" t="n">
-        <v>372.7231156153453</v>
+        <v>383.1666954585182</v>
       </c>
       <c r="L41" t="n">
-        <v>481.1936039882798</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>110.2140239230065</v>
+        <v>523.7841661874651</v>
       </c>
       <c r="N41" t="n">
         <v>324.7710688366687</v>
       </c>
       <c r="O41" t="n">
-        <v>57.95596164224341</v>
+        <v>444.6809545519367</v>
       </c>
       <c r="P41" t="n">
-        <v>378.5688206236428</v>
+        <v>43.89816412530087</v>
       </c>
       <c r="Q41" t="n">
         <v>254.622175519721</v>
       </c>
       <c r="R41" t="n">
-        <v>85.01373059929949</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37850,13 +37850,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>44.9328113065738</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>106.540213047771</v>
       </c>
       <c r="J42" t="n">
-        <v>29.81009846404947</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37871,7 +37871,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>121.6629258902954</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37929,7 +37929,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>34.36849981491937</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>12.56588141601639</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>72.44728994755224</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>87.0854079985495</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>90.20790547497381</v>
+        <v>105.4278135388714</v>
       </c>
       <c r="O43" t="n">
-        <v>67.83008960658265</v>
+        <v>71.65948295717801</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>88.08681549061463</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.30411341502163</v>
+        <v>65.8980760571128</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>8.91116738801837</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>237.7769268361117</v>
@@ -38020,25 +38020,25 @@
         <v>383.1666954585182</v>
       </c>
       <c r="L44" t="n">
-        <v>139.6143269368194</v>
+        <v>481.1936039882798</v>
       </c>
       <c r="M44" t="n">
         <v>523.7841661874651</v>
       </c>
       <c r="N44" t="n">
-        <v>324.7710688366687</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>358.6922447163748</v>
       </c>
       <c r="P44" t="n">
-        <v>184.658487041505</v>
+        <v>4.346300350176314</v>
       </c>
       <c r="Q44" t="n">
-        <v>254.622175519721</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>16.66865393139776</v>
+        <v>85.01373059929949</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38069,7 +38069,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>4.667638555153817</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>34.83010177998568</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38120,7 +38120,7 @@
         <v>116.6429225743591</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>30.16246322483186</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -38148,13 +38148,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>13.82664209145403</v>
       </c>
       <c r="C46" t="n">
-        <v>26.5737806509355</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>44.90476706761848</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -38166,16 +38166,16 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>17.69259089115343</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>86.72715637574929</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>80.47458584111067</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -38184,13 +38184,13 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>105.4278135388714</v>
       </c>
       <c r="O46" t="n">
-        <v>92.17709016820271</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>34.58330775507953</v>
+        <v>228.4936413372174</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
